--- a/Carteira de Ações.xlsx
+++ b/Carteira de Ações.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="286">
   <si>
     <t>COMPRA</t>
   </si>
@@ -646,9 +646,6 @@
     <t>17.554.274/0001-25</t>
   </si>
   <si>
-    <t>SOLUÇÕES E SERV. SEGUR.</t>
-  </si>
-  <si>
     <t>33.113.309/0001-47</t>
   </si>
   <si>
@@ -1019,6 +1016,12 @@
   </si>
   <si>
     <t>RESUMO CARTEIRA</t>
+  </si>
+  <si>
+    <t>SOLUÇÕES E SERV. SEGURANÇA</t>
+  </si>
+  <si>
+    <t>VALE MINERAÇÃO</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1040,7 @@
     <numFmt numFmtId="172" formatCode="#,##0.000"/>
     <numFmt numFmtId="173" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1182,13 +1185,6 @@
       <b/>
       <i/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1455,16 +1451,16 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1539,67 +1535,66 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="24" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="23" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="24" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="23" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1608,9 +1603,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,18 +1623,18 @@
     </xf>
     <xf numFmtId="10" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="33" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="33" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="32" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="32" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="33" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="33" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Accent 1 1" xfId="4"/>
@@ -2081,10 +2076,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="R49" sqref="R49"/>
+      <selection pane="topRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2131,7 +2126,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.65" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
@@ -2173,9 +2168,9 @@
         <v>13</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="P6" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="P6" s="101" t="s">
         <v>8</v>
       </c>
       <c r="Q6" s="10" t="s">
@@ -2190,18 +2185,18 @@
     </row>
     <row r="7" spans="1:19" ht="14.65" customHeight="1">
       <c r="A7" s="58" t="str">
-        <f>VLOOKUP(C7,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C7,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B7" t="str">
-        <f>VLOOKUP(C7,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C7,Cadastro!$A$7:$D$55,3,1)</f>
         <v>07.526.557/0001-00</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="103" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="11" t="str">
-        <f>VLOOKUP(C7,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C7,Cadastro!$A$7:$D$55,2,1)</f>
         <v>AMBEV SA ON</v>
       </c>
       <c r="E7" s="12">
@@ -2258,18 +2253,18 @@
     </row>
     <row r="8" spans="1:19" ht="14.65" customHeight="1">
       <c r="A8" s="58" t="str">
-        <f>VLOOKUP(C8,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C8,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
       <c r="B8" s="11" t="str">
-        <f>VLOOKUP(C8,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C8,Cadastro!$A$7:$C$55,3,1)</f>
         <v>00.000.000/0001-91</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="103" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="11" t="str">
-        <f>VLOOKUP(C8,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C8,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO DO BRASIL SA ON</v>
       </c>
       <c r="E8" s="19">
@@ -2326,18 +2321,18 @@
     </row>
     <row r="9" spans="1:19" ht="14.65" customHeight="1">
       <c r="A9" s="58" t="str">
-        <f>VLOOKUP(C9,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C9,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B9" t="str">
-        <f>VLOOKUP(C9,Cadastro!$A$7:$C$39,3,1)</f>
+      <c r="B9" s="11" t="str">
+        <f>VLOOKUP(C9,Cadastro!$A$7:$C$55,3,1)</f>
         <v>60.746.948/0001-12</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="103" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="11" t="str">
-        <f>VLOOKUP(C9,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C9,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO BRADESCO SA ON</v>
       </c>
       <c r="E9" s="12">
@@ -2394,18 +2389,18 @@
     </row>
     <row r="10" spans="1:19" s="58" customFormat="1" ht="14.65" customHeight="1">
       <c r="A10" s="58" t="str">
-        <f>VLOOKUP(C10,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C10,Cadastro!$A$7:$D$55,4,1)</f>
         <v>FII</v>
       </c>
-      <c r="B10" s="58" t="str">
-        <f>VLOOKUP(C10,Cadastro!$A$7:$C$39,3,1)</f>
+      <c r="B10" s="11" t="str">
+        <f>VLOOKUP(C10,Cadastro!$A$7:$C$55,3,1)</f>
         <v>14.410.722/0001-29</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="11" t="str">
-        <f>VLOOKUP(C10,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C10,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO DO BRASIL LOCACAO</v>
       </c>
       <c r="E10" s="12">
@@ -2462,18 +2457,18 @@
     </row>
     <row r="11" spans="1:19" ht="14.65" customHeight="1">
       <c r="A11" s="58" t="str">
-        <f>VLOOKUP(C11,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C11,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B11" s="11" t="str">
-        <f>VLOOKUP(C11,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C11,Cadastro!$A$7:$C$55,3,1)</f>
         <v>01.838.723/0001-27</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="105" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="11" t="str">
-        <f>VLOOKUP(C11,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C11,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BRASIL FOODS ON</v>
       </c>
       <c r="E11" s="12">
@@ -2530,18 +2525,18 @@
     </row>
     <row r="12" spans="1:19" ht="14.65" customHeight="1">
       <c r="A12" s="58" t="str">
-        <f>VLOOKUP(C12,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C12,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B12" s="11" t="str">
-        <f>VLOOKUP(C12,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C12,Cadastro!$A$7:$C$55,3,1)</f>
         <v>02.846.056/0001-97</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="104" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="11" t="str">
-        <f>VLOOKUP(C12,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C12,Cadastro!$A$7:$D$55,2,1)</f>
         <v>GRUPO CCR - RODOVIAS</v>
       </c>
       <c r="E12" s="19">
@@ -2598,18 +2593,18 @@
     </row>
     <row r="13" spans="1:19" ht="14.65" customHeight="1">
       <c r="A13" s="58" t="str">
-        <f>VLOOKUP(C13,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C13,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B13" t="str">
-        <f>VLOOKUP(C13,Cadastro!$A$7:$C$39,3,1)</f>
+      <c r="B13" s="11" t="str">
+        <f>VLOOKUP(C13,Cadastro!$A$7:$C$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="104" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="11" t="str">
-        <f>VLOOKUP(C13,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C13,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E13" s="12">
@@ -2666,18 +2661,18 @@
     </row>
     <row r="14" spans="1:19" ht="14.85" customHeight="1">
       <c r="A14" s="58" t="str">
-        <f>VLOOKUP(C14,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C14,Cadastro!$A$7:$D$55,4,1)</f>
         <v>ENERGIA</v>
       </c>
       <c r="B14" s="11" t="str">
-        <f>VLOOKUP(C14,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C14,Cadastro!$A$7:$C$55,3,1)</f>
         <v>17.155.730/0001-64</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="103" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="11" t="str">
-        <f>VLOOKUP(C14,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C14,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIA DE ENERGIA DE MINAS GERAIS ON</v>
       </c>
       <c r="E14" s="12">
@@ -2734,18 +2729,18 @@
     </row>
     <row r="15" spans="1:19" ht="14.85" customHeight="1">
       <c r="A15" s="58" t="str">
-        <f>VLOOKUP(C15,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C15,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B15" s="11" t="str">
-        <f>VLOOKUP(C15,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C15,Cadastro!$A$7:$C$55,3,1)</f>
         <v>33.042.730/0001-04</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="104" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="11" t="str">
-        <f>VLOOKUP(C15,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C15,Cadastro!$A$7:$D$55,2,1)</f>
         <v>COMPANHIA SIDERURGICA NACIONAL</v>
       </c>
       <c r="E15" s="19">
@@ -2802,18 +2797,18 @@
     </row>
     <row r="16" spans="1:19" ht="14.85" customHeight="1">
       <c r="A16" s="58" t="str">
-        <f>VLOOKUP(C16,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C16,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B16" s="11" t="str">
-        <f>VLOOKUP(C16,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C16,Cadastro!$A$7:$C$55,3,1)</f>
         <v>10.760.260/0001-19</v>
       </c>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="104" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="11" t="str">
-        <f>VLOOKUP(C16,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C16,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CVC BRAISL AGENCIA TURISMO</v>
       </c>
       <c r="E16" s="19">
@@ -2870,18 +2865,18 @@
     </row>
     <row r="17" spans="1:19" ht="14.85" customHeight="1">
       <c r="A17" s="58" t="str">
-        <f>VLOOKUP(C17,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C17,Cadastro!$A$7:$D$55,4,1)</f>
         <v>ENERGIA</v>
       </c>
       <c r="B17" s="11" t="str">
-        <f>VLOOKUP(C17,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C17,Cadastro!$A$7:$C$55,3,1)</f>
         <v>00.001.180/0001-26</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="103" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="11" t="str">
-        <f>VLOOKUP(C17,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C17,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ELETROBRAS ON</v>
       </c>
       <c r="E17" s="19">
@@ -2938,18 +2933,18 @@
     </row>
     <row r="18" spans="1:19" ht="14.85" customHeight="1">
       <c r="A18" s="58" t="str">
-        <f>VLOOKUP(C18,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C18,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
-      <c r="B18" t="str">
-        <f>VLOOKUP(C18,Cadastro!$A$7:$C$39,3,1)</f>
+      <c r="B18" s="11" t="str">
+        <f>VLOOKUP(C18,Cadastro!$A$7:$C$55,3,1)</f>
         <v>07.689.002/0001-89</v>
       </c>
-      <c r="C18" s="106" t="s">
+      <c r="C18" s="105" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="11" t="str">
-        <f>VLOOKUP(C18,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C18,Cadastro!$A$7:$D$55,2,1)</f>
         <v>EMBRAER SA</v>
       </c>
       <c r="E18" s="12">
@@ -3006,18 +3001,18 @@
     </row>
     <row r="19" spans="1:19" ht="14.65" customHeight="1">
       <c r="A19" s="58" t="str">
-        <f>VLOOKUP(C19,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C19,Cadastro!$A$7:$D$55,4,1)</f>
         <v>ENERGIA</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f>VLOOKUP(C19,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C19,Cadastro!$A$7:$C$55,3,1)</f>
         <v>03.220.438/0001-73</v>
       </c>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="103" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="11" t="str">
-        <f>VLOOKUP(C19,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C19,Cadastro!$A$7:$D$55,2,1)</f>
         <v>EQUATORIAL ENERGIA</v>
       </c>
       <c r="E19" s="12">
@@ -3074,18 +3069,18 @@
     </row>
     <row r="20" spans="1:19" ht="14.65" customHeight="1">
       <c r="A20" s="58" t="str">
-        <f>VLOOKUP(C20,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C20,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B20" t="str">
-        <f>VLOOKUP(C20,Cadastro!$A$7:$C$39,3,1)</f>
+      <c r="B20" s="11" t="str">
+        <f>VLOOKUP(C20,Cadastro!$A$7:$C$55,3,1)</f>
         <v>60.872.504/0001-23</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="103" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="11" t="str">
-        <f>VLOOKUP(C20,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C20,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ITAÚ UNIBANCO HOLDING S.A.</v>
       </c>
       <c r="E20" s="12">
@@ -3144,18 +3139,18 @@
     </row>
     <row r="21" spans="1:19" ht="14.65" customHeight="1">
       <c r="A21" s="58" t="str">
-        <f>VLOOKUP(C21,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C21,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B21" s="11" t="str">
-        <f>VLOOKUP(C21,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C21,Cadastro!$A$7:$C$55,3,1)</f>
         <v>32.785.497/0001-97</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="103" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="11" t="str">
-        <f>VLOOKUP(C21,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C21,Cadastro!$A$7:$D$55,2,1)</f>
         <v>NATURA COSMETICO - AVON</v>
       </c>
       <c r="E21" s="12">
@@ -3212,18 +3207,18 @@
     </row>
     <row r="22" spans="1:19" ht="14.65" customHeight="1">
       <c r="A22" s="58" t="str">
-        <f>VLOOKUP(C22,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C22,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B22" t="str">
-        <f>VLOOKUP(C22,Cadastro!$A$7:$C$39,3,1)</f>
+      <c r="B22" s="11" t="str">
+        <f>VLOOKUP(C22,Cadastro!$A$7:$C$55,3,1)</f>
         <v>76.535.764/0001-43</v>
       </c>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="105" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="11" t="str">
-        <f>VLOOKUP(C22,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C22,Cadastro!$A$7:$D$55,2,1)</f>
         <v>OI SA EM RECUPERAÇÃO JUDICIAL</v>
       </c>
       <c r="E22" s="12">
@@ -3282,18 +3277,18 @@
     </row>
     <row r="23" spans="1:19" ht="14.65" customHeight="1">
       <c r="A23" s="58" t="str">
-        <f>VLOOKUP(C23,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C23,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
-      <c r="B23" s="58" t="str">
-        <f>VLOOKUP(C23,Cadastro!$A$7:$C$39,3,1)</f>
+      <c r="B23" s="11" t="str">
+        <f>VLOOKUP(C23,Cadastro!$A$7:$C$55,3,1)</f>
         <v>33.000.167/0001-01</v>
       </c>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="103" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="11" t="str">
-        <f>VLOOKUP(C23,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C23,Cadastro!$A$7:$D$55,2,1)</f>
         <v>PETRÓLEO BRASILEIRO S.A. PN</v>
       </c>
       <c r="E23" s="12">
@@ -3352,18 +3347,18 @@
     </row>
     <row r="24" spans="1:19" ht="14.65" customHeight="1">
       <c r="A24" s="58" t="str">
-        <f>VLOOKUP(C24,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C24,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
       <c r="B24" s="11" t="str">
-        <f>VLOOKUP(C24,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C24,Cadastro!$A$7:$C$55,3,1)</f>
         <v>90.400.888/0001-42</v>
       </c>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="103" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="11" t="str">
-        <f>VLOOKUP(C24,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C24,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO SANTANDER BRON ON</v>
       </c>
       <c r="E24" s="19">
@@ -3420,18 +3415,18 @@
     </row>
     <row r="25" spans="1:19" ht="14.65" customHeight="1">
       <c r="A25" s="58" t="str">
-        <f>VLOOKUP(C25,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C25,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
       <c r="B25" s="11" t="str">
-        <f>VLOOKUP(C25,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C25,Cadastro!$A$7:$C$55,3,1)</f>
         <v>90.400.888/0001-42</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="103" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="11" t="str">
-        <f>VLOOKUP(C25,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C25,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO SANTANDER BRON PN</v>
       </c>
       <c r="E25" s="12">
@@ -3488,18 +3483,18 @@
     </row>
     <row r="26" spans="1:19" ht="14.65" customHeight="1">
       <c r="A26" s="58" t="str">
-        <f>VLOOKUP(C26,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C26,Cadastro!$A$7:$D$55,4,1)</f>
         <v>ENERGIA</v>
       </c>
       <c r="B26" s="11" t="str">
-        <f>VLOOKUP(C26,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C26,Cadastro!$A$7:$C$55,3,1)</f>
         <v>02.998.611/0001-04</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="103" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="11" t="str">
-        <f>VLOOKUP(C26,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C26,Cadastro!$A$7:$D$55,2,1)</f>
         <v>TRANSMISSÃO PAULISTA CTEEP</v>
       </c>
       <c r="E26" s="12">
@@ -3556,19 +3551,19 @@
     </row>
     <row r="27" spans="1:19" ht="14.65" customHeight="1">
       <c r="A27" s="58" t="str">
-        <f>VLOOKUP(C27,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C27,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>EMP PUBLICA</v>
       </c>
       <c r="B27" s="11" t="str">
-        <f>VLOOKUP(C27,Cadastro!$A$7:$C$39,3,1)</f>
-        <v>02.998.611/0001-04</v>
-      </c>
-      <c r="C27" s="104" t="s">
+        <f>VLOOKUP(C27,Cadastro!$A$7:$C$55,3,1)</f>
+        <v>33.592.510/0001-54</v>
+      </c>
+      <c r="C27" s="103" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="11" t="str">
-        <f>VLOOKUP(C27,Cadastro!$A$7:$C$55,2,1)</f>
-        <v>VALE</v>
+        <f>VLOOKUP(C27,Cadastro!$A$7:$D$55,2,1)</f>
+        <v>VALE MINERAÇÃO</v>
       </c>
       <c r="E27" s="19">
         <v>43861</v>
@@ -3624,18 +3619,18 @@
     </row>
     <row r="28" spans="1:19" ht="14.65" customHeight="1">
       <c r="A28" s="58" t="str">
-        <f>VLOOKUP(C28,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
-      </c>
-      <c r="B28" s="58" t="str">
-        <f>VLOOKUP(C28,Cadastro!$A$7:$C$39,3,1)</f>
-        <v>02.998.611/0001-04</v>
-      </c>
-      <c r="C28" s="104" t="s">
+        <f>VLOOKUP(C28,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
+      </c>
+      <c r="B28" s="11" t="str">
+        <f>VLOOKUP(C28,Cadastro!$A$7:$C$55,3,1)</f>
+        <v>17.554.274/0001-25</v>
+      </c>
+      <c r="C28" s="103" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="11" t="str">
-        <f>VLOOKUP(C28,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C28,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E28" s="12">
@@ -3694,19 +3689,19 @@
     </row>
     <row r="29" spans="1:19" ht="14.65" customHeight="1">
       <c r="A29" s="58" t="str">
-        <f>VLOOKUP(C29,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
-      </c>
-      <c r="B29" s="58" t="str">
-        <f>VLOOKUP(C29,Cadastro!$A$7:$C$39,3,1)</f>
-        <v>02.998.611/0001-04</v>
-      </c>
-      <c r="C29" s="105" t="s">
+        <f>VLOOKUP(C29,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>RISCO</v>
+      </c>
+      <c r="B29" s="11" t="str">
+        <f>VLOOKUP(C29,Cadastro!$A$7:$C$55,3,1)</f>
+        <v>33.113.309/0001-47</v>
+      </c>
+      <c r="C29" s="104" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="11" t="str">
-        <f>VLOOKUP(C29,Cadastro!$A$7:$C$55,2,1)</f>
-        <v>SOLUÇÕES E SERV. SEGUR.</v>
+        <f>VLOOKUP(C29,Cadastro!$A$7:$D$55,2,1)</f>
+        <v>SOLUÇÕES E SERV. SEGURANÇA</v>
       </c>
       <c r="E29" s="12">
         <v>43689</v>
@@ -3762,18 +3757,18 @@
     </row>
     <row r="30" spans="1:19" ht="14.65" customHeight="1">
       <c r="A30" s="58" t="str">
-        <f>VLOOKUP(C30,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C30,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>RISCO</v>
       </c>
       <c r="B30" s="11" t="str">
-        <f>VLOOKUP(C30,Cadastro!$A$7:$C$39,3,1)</f>
-        <v>02.998.611/0001-04</v>
-      </c>
-      <c r="C30" s="105" t="s">
+        <f>VLOOKUP(C30,Cadastro!$A$7:$C$55,3,1)</f>
+        <v>33.041.260/0652-90</v>
+      </c>
+      <c r="C30" s="104" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="11" t="str">
-        <f>VLOOKUP(C30,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C30,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VIA VAREJO SA ON</v>
       </c>
       <c r="E30" s="19">
@@ -3830,18 +3825,18 @@
     </row>
     <row r="31" spans="1:19" s="58" customFormat="1" ht="14.65" customHeight="1">
       <c r="A31" s="58" t="str">
-        <f>VLOOKUP(C31,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
-      </c>
-      <c r="B31" s="58" t="str">
-        <f>VLOOKUP(C31,Cadastro!$A$7:$C$39,3,1)</f>
-        <v>02.998.611/0001-04</v>
-      </c>
-      <c r="C31" s="104" t="s">
+        <f>VLOOKUP(C31,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
+      </c>
+      <c r="B31" s="11" t="str">
+        <f>VLOOKUP(C31,Cadastro!$A$7:$C$55,3,1)</f>
+        <v>26.502.794/0001-85</v>
+      </c>
+      <c r="C31" s="103" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="11" t="str">
-        <f>VLOOKUP(C31,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C31,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E31" s="12">
@@ -3899,7 +3894,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="14.65" customHeight="1">
-      <c r="A32" s="107"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="12"/>
@@ -3918,18 +3913,18 @@
     </row>
     <row r="33" spans="1:19" ht="14.65" customHeight="1">
       <c r="A33" s="20" t="str">
-        <f>VLOOKUP(C33,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C33,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B33" s="20" t="str">
-        <f>VLOOKUP(C33,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C33,Cadastro!$A$7:$C$55,3,1)</f>
         <v>11.669.021/0001-10</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="20" t="str">
-        <f>VLOOKUP(C33,Cadastro!$A$7:$C$39,2,1)</f>
+        <f>VLOOKUP(C33,Cadastro!$A$7:$D$55,2,1)</f>
         <v>QUEIROZ GALVAO PART ON</v>
       </c>
       <c r="E33" s="21">
@@ -3968,18 +3963,18 @@
     </row>
     <row r="34" spans="1:19" ht="14.65" customHeight="1">
       <c r="A34" s="20" t="str">
-        <f>VLOOKUP(C34,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C34,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
       <c r="B34" s="20" t="str">
-        <f>VLOOKUP(C34,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C34,Cadastro!$A$7:$C$55,3,1)</f>
         <v>60.746.948/0001-12</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="20" t="str">
-        <f>VLOOKUP(C34,Cadastro!$A$7:$C$39,2,1)</f>
+        <f>VLOOKUP(C34,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO BRADESCO SA ON</v>
       </c>
       <c r="E34" s="21">
@@ -4018,18 +4013,18 @@
     </row>
     <row r="35" spans="1:19" ht="14.65" customHeight="1">
       <c r="A35" s="20" t="str">
-        <f>VLOOKUP(C35,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C35,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
       <c r="B35" s="20" t="str">
-        <f>VLOOKUP(C35,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C35,Cadastro!$A$7:$C$55,3,1)</f>
         <v>61.532.644/0001-15</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="20" t="str">
-        <f>VLOOKUP(C35,Cadastro!$A$7:$C$39,2,1)</f>
+        <f>VLOOKUP(C35,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ITAU INVESTIMENTOS SA PN</v>
       </c>
       <c r="E35" s="21">
@@ -4068,18 +4063,18 @@
     </row>
     <row r="36" spans="1:19" ht="14.65" customHeight="1">
       <c r="A36" s="20" t="str">
-        <f>VLOOKUP(C36,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C36,Cadastro!$A$7:$D$55,4,1)</f>
         <v>ENERGIA</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>VLOOKUP(C36,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C36,Cadastro!$A$7:$C$55,3,1)</f>
         <v>17.155.730/0001-64</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="20" t="str">
-        <f>VLOOKUP(C36,Cadastro!$A$7:$C$39,2,1)</f>
+        <f>VLOOKUP(C36,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIA DE ENERGIA DE MINAS GERAIS ON</v>
       </c>
       <c r="E36" s="21">
@@ -4118,18 +4113,18 @@
     </row>
     <row r="37" spans="1:19" ht="14.65" customHeight="1">
       <c r="A37" s="20" t="str">
-        <f>VLOOKUP(C37,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C37,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>VLOOKUP(C37,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C37,Cadastro!$A$7:$C$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="20" t="str">
-        <f>VLOOKUP(C37,Cadastro!$A$7:$C$39,2,1)</f>
+        <f>VLOOKUP(C37,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E37" s="21">
@@ -4168,18 +4163,18 @@
     </row>
     <row r="38" spans="1:19" ht="14.65" customHeight="1">
       <c r="A38" s="20" t="str">
-        <f>VLOOKUP(C38,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C38,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>VLOOKUP(C38,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C38,Cadastro!$A$7:$C$55,3,1)</f>
         <v>07.689.002/0001-89</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="20" t="str">
-        <f>VLOOKUP(C38,Cadastro!$A$7:$C$39,2,1)</f>
+        <f>VLOOKUP(C38,Cadastro!$A$7:$D$55,2,1)</f>
         <v>EMBRAER SA</v>
       </c>
       <c r="E38" s="21">
@@ -4218,18 +4213,18 @@
     </row>
     <row r="39" spans="1:19" ht="14.65" customHeight="1">
       <c r="A39" s="20" t="str">
-        <f>VLOOKUP(C39,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C39,Cadastro!$A$7:$D$55,4,1)</f>
         <v>ENERGIA</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>VLOOKUP(C39,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C39,Cadastro!$A$7:$C$55,3,1)</f>
         <v>00.001.180/0001-26</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="20" t="str">
-        <f>VLOOKUP(C39,Cadastro!$A$7:$C$39,2,1)</f>
+        <f>VLOOKUP(C39,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ELETROBRAS ON</v>
       </c>
       <c r="E39" s="21">
@@ -4268,18 +4263,18 @@
     </row>
     <row r="40" spans="1:19" ht="14.65" customHeight="1">
       <c r="A40" s="20" t="str">
-        <f>VLOOKUP(C40,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C40,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>VLOOKUP(C40,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C40,Cadastro!$A$7:$C$55,3,1)</f>
         <v>11.669.021/0001-10</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="20" t="str">
-        <f>VLOOKUP(C40,Cadastro!$A$7:$C$39,2,1)</f>
+        <f>VLOOKUP(C40,Cadastro!$A$7:$D$55,2,1)</f>
         <v>QUEIROZ GALVAO PART ON</v>
       </c>
       <c r="E40" s="21">
@@ -4318,18 +4313,18 @@
     </row>
     <row r="41" spans="1:19" ht="14.65" customHeight="1">
       <c r="A41" s="20" t="str">
-        <f>VLOOKUP(C41,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C41,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B41" s="20" t="str">
-        <f>VLOOKUP(C41,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C41,Cadastro!$A$7:$C$55,3,1)</f>
         <v>02.932.074/0001-91</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="20" t="str">
-        <f>VLOOKUP(C41,Cadastro!$A$7:$C$39,2,1)</f>
+        <f>VLOOKUP(C41,Cadastro!$A$7:$D$55,2,1)</f>
         <v>HYPERMARCAS S/A</v>
       </c>
       <c r="E41" s="21">
@@ -4372,18 +4367,18 @@
     </row>
     <row r="42" spans="1:19" ht="14.65" customHeight="1">
       <c r="A42" s="20" t="str">
-        <f>VLOOKUP(C42,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C42,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
       <c r="B42" s="20" t="str">
-        <f>VLOOKUP(C42,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C42,Cadastro!$A$7:$C$55,3,1)</f>
         <v>90.400.888/0001-42</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="20" t="str">
-        <f>VLOOKUP(C42,Cadastro!$A$7:$C$39,2,1)</f>
+        <f>VLOOKUP(C42,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO SANTANDER BRON ON</v>
       </c>
       <c r="E42" s="21">
@@ -4426,19 +4421,19 @@
     </row>
     <row r="43" spans="1:19" ht="14.65" customHeight="1">
       <c r="A43" s="20" t="str">
-        <f>VLOOKUP(C43,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C43,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>EMP PUBLICA</v>
       </c>
       <c r="B43" s="20" t="str">
-        <f>VLOOKUP(C43,Cadastro!$A$7:$C$39,3,1)</f>
-        <v>02.998.611/0001-04</v>
+        <f>VLOOKUP(C43,Cadastro!$A$7:$C$55,3,1)</f>
+        <v>33.592.510/0001-54</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D43" s="20" t="str">
-        <f>VLOOKUP(C43,Cadastro!$A$7:$C$39,2,1)</f>
-        <v>TRANSMISSÃO PAULISTA CTEEP</v>
+        <f>VLOOKUP(C43,Cadastro!$A$7:$D$55,2,1)</f>
+        <v>VALE MINERAÇÃO</v>
       </c>
       <c r="E43" s="21">
         <v>43496</v>
@@ -4480,18 +4475,18 @@
     </row>
     <row r="44" spans="1:19" ht="14.65" customHeight="1">
       <c r="A44" s="20" t="str">
-        <f>VLOOKUP(C44,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C44,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B44" s="20" t="str">
-        <f>VLOOKUP(C44,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C44,Cadastro!$A$7:$C$55,3,1)</f>
         <v>07.526.557/0001-00</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="20" t="str">
-        <f>VLOOKUP(C44,Cadastro!$A$7:$C$39,2,1)</f>
+        <f>VLOOKUP(C44,Cadastro!$A$7:$D$55,2,1)</f>
         <v>AMBEV SA ON</v>
       </c>
       <c r="E44" s="21">
@@ -4534,18 +4529,18 @@
     </row>
     <row r="45" spans="1:19" ht="14.65" customHeight="1">
       <c r="A45" s="20" t="str">
-        <f>VLOOKUP(C45,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C45,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B45" s="20" t="str">
-        <f>VLOOKUP(C45,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C45,Cadastro!$A$7:$C$55,3,1)</f>
         <v>92.690.783/0001-09</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="20" t="str">
-        <f>VLOOKUP(C45,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C45,Cadastro!$A$7:$D$55,2,1)</f>
         <v>METALURGICA GERDAU ON</v>
       </c>
       <c r="E45" s="21">
@@ -4588,18 +4583,18 @@
     </row>
     <row r="46" spans="1:19" ht="14.65" customHeight="1">
       <c r="A46" s="20" t="str">
-        <f>VLOOKUP(C46,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C46,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B46" s="20" t="str">
-        <f>VLOOKUP(C46,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C46,Cadastro!$A$7:$C$55,3,1)</f>
         <v>11.669.021/0001-10</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="20" t="str">
-        <f>VLOOKUP(C46,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C46,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ENAUTA PARTICIPAÇÕES S.A. ON</v>
       </c>
       <c r="E46" s="21">
@@ -4642,18 +4637,18 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="20" t="str">
-        <f>VLOOKUP(C47,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C47,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B47" s="20" t="str">
-        <f>VLOOKUP(C47,Cadastro!$A$7:$C$39,3,1)</f>
+        <f>VLOOKUP(C47,Cadastro!$A$7:$C$55,3,1)</f>
         <v>02.932.074/0001-91</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D47" s="20" t="str">
-        <f>VLOOKUP(C47,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C47,Cadastro!$A$7:$D$55,2,1)</f>
         <v>HYPERMARCAS S/A</v>
       </c>
       <c r="E47" s="21">
@@ -4691,162 +4686,162 @@
     </row>
     <row r="48" spans="1:19" ht="14.65" customHeight="1"/>
     <row r="49" spans="1:19" ht="14.65" customHeight="1">
-      <c r="A49" s="119"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="120" t="s">
-        <v>282</v>
-      </c>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="121">
+      <c r="A49" s="118"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="119" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" s="119"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="120">
         <f>SUM(H7:H32)</f>
         <v>111397.52959999999</v>
       </c>
-      <c r="I49" s="119"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="121">
+      <c r="I49" s="118"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="118"/>
+      <c r="L49" s="120">
         <f>SUM(L7:L32)</f>
         <v>83412.73</v>
       </c>
-      <c r="M49" s="121">
+      <c r="M49" s="120">
         <f>SUM(M7:M32)</f>
         <v>-27984.799599999998</v>
       </c>
-      <c r="N49" s="122">
+      <c r="N49" s="121">
         <f>M49/H49</f>
         <v>-0.25121562121248331</v>
       </c>
-      <c r="O49" s="122"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="121">
+      <c r="O49" s="121"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="120">
         <f>SUM(Q7:Q32)</f>
         <v>124740</v>
       </c>
-      <c r="R49" s="121">
+      <c r="R49" s="120">
         <f>SUM(R7:R32)</f>
         <v>13342.470400000002</v>
       </c>
-      <c r="S49" s="122">
+      <c r="S49" s="121">
         <f>R49/H49</f>
         <v>0.11977348553338119</v>
       </c>
     </row>
     <row r="50" spans="1:19" s="58" customFormat="1" ht="14.65" customHeight="1">
-      <c r="A50" s="123"/>
-      <c r="B50" s="123"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124" t="s">
-        <v>283</v>
-      </c>
-      <c r="E50" s="124"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="123"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="123"/>
-      <c r="L50" s="125"/>
-      <c r="M50" s="125">
+      <c r="A50" s="122"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="E50" s="123"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="124"/>
+      <c r="M50" s="124">
         <f>SUM(Dividendos!H7:H116)</f>
         <v>1894.9499999999998</v>
       </c>
-      <c r="N50" s="126">
+      <c r="N50" s="125">
         <f>M50/H49</f>
         <v>1.7010700388099091E-2</v>
       </c>
-      <c r="O50" s="126"/>
-      <c r="P50" s="123"/>
-      <c r="Q50" s="125"/>
-      <c r="R50" s="125">
+      <c r="O50" s="125"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="124"/>
+      <c r="R50" s="124">
         <f>M50</f>
         <v>1894.9499999999998</v>
       </c>
-      <c r="S50" s="126">
+      <c r="S50" s="125">
         <f>N50</f>
         <v>1.7010700388099091E-2</v>
       </c>
     </row>
     <row r="51" spans="1:19" s="58" customFormat="1" ht="14.65" customHeight="1">
-      <c r="A51" s="112"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113" t="s">
-        <v>284</v>
-      </c>
-      <c r="E51" s="113"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="112"/>
-      <c r="H51" s="114">
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="E51" s="112"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="113">
         <f>H49+H50</f>
         <v>111397.52959999999</v>
       </c>
-      <c r="I51" s="112"/>
-      <c r="J51" s="112"/>
-      <c r="K51" s="112"/>
-      <c r="L51" s="114">
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="113">
         <f>SUM(L49:L50)</f>
         <v>83412.73</v>
       </c>
-      <c r="M51" s="114">
+      <c r="M51" s="113">
         <f>SUM(M49:M50)</f>
         <v>-26089.849599999998</v>
       </c>
-      <c r="N51" s="115">
+      <c r="N51" s="114">
         <f>M51/H51</f>
         <v>-0.23420492082438424</v>
       </c>
-      <c r="O51" s="115"/>
-      <c r="P51" s="112"/>
-      <c r="Q51" s="114">
+      <c r="O51" s="114"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="113">
         <f>SUM(Q49:Q50)</f>
         <v>124740</v>
       </c>
-      <c r="R51" s="114">
+      <c r="R51" s="113">
         <f>SUM(R49:R50)</f>
         <v>15237.420400000003</v>
       </c>
-      <c r="S51" s="115">
+      <c r="S51" s="114">
         <f>R51/H51</f>
         <v>0.13678418592148028</v>
       </c>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="112"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="116" t="s">
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="116"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="114">
+      <c r="E52" s="115"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="113">
         <f>SUM(H33:H48)</f>
         <v>41979.479999999996</v>
       </c>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
-      <c r="K52" s="112"/>
-      <c r="L52" s="114">
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="113">
         <f>SUM(L33:L47)</f>
         <v>49983.409999999996</v>
       </c>
-      <c r="M52" s="114">
+      <c r="M52" s="113">
         <f>SUM(M33:M47)</f>
         <v>8003.9300000000012</v>
       </c>
-      <c r="N52" s="115">
+      <c r="N52" s="114">
         <f>M52/H52</f>
         <v>0.19066291435720503</v>
       </c>
-      <c r="O52" s="117"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
+      <c r="O52" s="116"/>
+      <c r="P52" s="117"/>
+      <c r="Q52" s="117"/>
+      <c r="R52" s="117"/>
+      <c r="S52" s="117"/>
     </row>
     <row r="53" spans="1:19" s="58" customFormat="1">
       <c r="H53" s="29"/>
@@ -5198,7 +5193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -6973,11 +6968,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView topLeftCell="D78" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H85"/>
+    <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7018,30 +7012,30 @@
       <c r="H6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="110" t="s">
+      <c r="K6" s="109" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.65" customHeight="1">
       <c r="A7" s="58" t="str">
-        <f>VLOOKUP(C7,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C7,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
       <c r="B7" t="str">
-        <f>VLOOKUP(C7,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C7,Cadastro!$A$7:$D$55,3,1)</f>
         <v>07.526.557/0001-00</v>
       </c>
       <c r="C7" t="s">
         <v>73</v>
       </c>
       <c r="D7" s="11" t="str">
-        <f>VLOOKUP(C7,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C7,Cadastro!$A$7:$D$55,2,1)</f>
         <v>AMBEV SA ON</v>
       </c>
       <c r="E7" s="58" t="s">
@@ -7056,33 +7050,33 @@
       <c r="H7">
         <v>41.71</v>
       </c>
-      <c r="I7" s="109">
+      <c r="I7" s="108">
         <f>VLOOKUP(C7,Resumo!$C$7:$H$31,5,1)</f>
         <v>15.82</v>
       </c>
-      <c r="J7" s="109">
+      <c r="J7" s="108">
         <f>I7*G7</f>
         <v>1582</v>
       </c>
-      <c r="K7" s="108">
+      <c r="K7" s="107">
         <f>H7/J7</f>
         <v>2.6365360303413403E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="8" spans="1:11" ht="14.65" customHeight="1">
       <c r="A8" s="58" t="str">
-        <f>VLOOKUP(C8,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C8,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
       <c r="B8" t="str">
-        <f>VLOOKUP(C8,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C8,Cadastro!$A$7:$D$55,3,1)</f>
         <v>60.746.948/0001-12</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="11" t="str">
-        <f>VLOOKUP(C8,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C8,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO BRADESCO SA ON</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -7097,33 +7091,33 @@
       <c r="H8">
         <v>1.47</v>
       </c>
-      <c r="I8" s="109">
+      <c r="I8" s="108">
         <f>VLOOKUP(C8,Resumo!$C$7:$H$31,5,1)</f>
         <v>22.45</v>
       </c>
-      <c r="J8" s="109">
+      <c r="J8" s="108">
         <f>I8*G8</f>
         <v>2245</v>
       </c>
-      <c r="K8" s="108">
+      <c r="K8" s="107">
         <f>H8/J8</f>
         <v>6.547884187082405E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="9" spans="1:11" ht="14.65" customHeight="1">
       <c r="A9" s="58" t="str">
-        <f>VLOOKUP(C9,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C9,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B9" t="str">
-        <f>VLOOKUP(C9,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B9" s="58" t="str">
+        <f>VLOOKUP(C9,Cadastro!$A$7:$D$55,3,1)</f>
         <v>60.746.948/0001-12</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="11" t="str">
-        <f>VLOOKUP(C9,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C9,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO BRADESCO SA ON</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -7138,39 +7132,39 @@
       <c r="H9">
         <v>1.47</v>
       </c>
-      <c r="I9" s="109">
+      <c r="I9" s="108">
         <f>VLOOKUP(C9,Resumo!$C$7:$H$31,5,1)</f>
         <v>22.45</v>
       </c>
-      <c r="J9" s="109">
+      <c r="J9" s="108">
         <f>I9*G9</f>
         <v>2245</v>
       </c>
-      <c r="K9" s="108">
+      <c r="K9" s="107">
         <f>H9/J9</f>
         <v>6.547884187082405E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="10" spans="1:11" ht="14.65" customHeight="1">
       <c r="A10" s="58" t="str">
-        <f>VLOOKUP(C10,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C10,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B10" t="str">
-        <f>VLOOKUP(C10,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B10" s="58" t="str">
+        <f>VLOOKUP(C10,Cadastro!$A$7:$D$55,3,1)</f>
         <v>60.746.948/0001-12</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="11" t="str">
-        <f>VLOOKUP(C10,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C10,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO BRADESCO SA ON</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="103">
+      <c r="F10" s="102">
         <v>43955</v>
       </c>
       <c r="G10">
@@ -7179,39 +7173,39 @@
       <c r="H10" s="11">
         <v>2.93</v>
       </c>
-      <c r="I10" s="109">
+      <c r="I10" s="108">
         <f>VLOOKUP(C10,Resumo!$C$7:$H$31,5,1)</f>
         <v>22.45</v>
       </c>
-      <c r="J10" s="109">
+      <c r="J10" s="108">
         <f>I10*G10</f>
         <v>4490</v>
       </c>
-      <c r="K10" s="108">
+      <c r="K10" s="107">
         <f>H10/J10</f>
         <v>6.5256124721603569E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="11" spans="1:11" ht="14.65" customHeight="1">
       <c r="A11" s="58" t="str">
-        <f>VLOOKUP(C11,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C11,Cadastro!$A$7:$D$55,4,1)</f>
         <v>FII</v>
       </c>
-      <c r="B11" t="str">
-        <f>VLOOKUP(C11,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B11" s="58" t="str">
+        <f>VLOOKUP(C11,Cadastro!$A$7:$D$55,3,1)</f>
         <v>14.410.722/0001-29</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="11" t="str">
-        <f>VLOOKUP(C11,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C11,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO DO BRASIL LOCACAO</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F11" s="102">
         <v>43845</v>
       </c>
       <c r="G11">
@@ -7220,39 +7214,39 @@
       <c r="H11" s="11">
         <v>21.15</v>
       </c>
-      <c r="I11" s="109">
+      <c r="I11" s="108">
         <f>VLOOKUP(C11,Resumo!$C$7:$H$31,5,1)</f>
         <v>157.74</v>
       </c>
-      <c r="J11" s="109">
+      <c r="J11" s="108">
         <f>I11*G11</f>
         <v>3154.8</v>
       </c>
-      <c r="K11" s="108">
+      <c r="K11" s="107">
         <f>H11/J11</f>
         <v>6.7040699885888158E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="12" spans="1:11" ht="14.65" customHeight="1">
       <c r="A12" s="58" t="str">
-        <f>VLOOKUP(C12,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C12,Cadastro!$A$7:$D$55,4,1)</f>
         <v>FII</v>
       </c>
-      <c r="B12" t="str">
-        <f>VLOOKUP(C12,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B12" s="58" t="str">
+        <f>VLOOKUP(C12,Cadastro!$A$7:$D$55,3,1)</f>
         <v>14.410.722/0001-29</v>
       </c>
       <c r="C12" s="58" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="11" t="str">
-        <f>VLOOKUP(C12,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C12,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO DO BRASIL LOCACAO</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="103">
+      <c r="F12" s="102">
         <v>43903</v>
       </c>
       <c r="G12">
@@ -7261,39 +7255,39 @@
       <c r="H12" s="11">
         <v>21.15</v>
       </c>
-      <c r="I12" s="109">
+      <c r="I12" s="108">
         <f>VLOOKUP(C12,Resumo!$C$7:$H$31,5,1)</f>
         <v>157.74</v>
       </c>
-      <c r="J12" s="109">
+      <c r="J12" s="108">
         <f>I12*G12</f>
         <v>3154.8</v>
       </c>
-      <c r="K12" s="108">
+      <c r="K12" s="107">
         <f>H12/J12</f>
         <v>6.7040699885888158E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="13" spans="1:11" ht="14.65" customHeight="1">
       <c r="A13" s="58" t="str">
-        <f>VLOOKUP(C13,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C13,Cadastro!$A$7:$D$55,4,1)</f>
         <v>FII</v>
       </c>
-      <c r="B13" t="str">
-        <f>VLOOKUP(C13,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B13" s="58" t="str">
+        <f>VLOOKUP(C13,Cadastro!$A$7:$D$55,3,1)</f>
         <v>14.410.722/0001-29</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="11" t="str">
-        <f>VLOOKUP(C13,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C13,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO DO BRASIL LOCACAO</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="103">
+      <c r="F13" s="102">
         <v>43875</v>
       </c>
       <c r="G13">
@@ -7302,39 +7296,39 @@
       <c r="H13" s="11">
         <v>21.15</v>
       </c>
-      <c r="I13" s="109">
+      <c r="I13" s="108">
         <f>VLOOKUP(C13,Resumo!$C$7:$H$31,5,1)</f>
         <v>157.74</v>
       </c>
-      <c r="J13" s="109">
+      <c r="J13" s="108">
         <f>I13*G13</f>
         <v>3154.8</v>
       </c>
-      <c r="K13" s="108">
+      <c r="K13" s="107">
         <f>H13/J13</f>
         <v>6.7040699885888158E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="14" spans="1:11" ht="14.65" customHeight="1">
       <c r="A14" s="58" t="str">
-        <f>VLOOKUP(C14,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C14,Cadastro!$A$7:$D$55,4,1)</f>
         <v>FII</v>
       </c>
-      <c r="B14" t="str">
-        <f>VLOOKUP(C14,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B14" s="58" t="str">
+        <f>VLOOKUP(C14,Cadastro!$A$7:$D$55,3,1)</f>
         <v>14.410.722/0001-29</v>
       </c>
       <c r="C14" s="58" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="11" t="str">
-        <f>VLOOKUP(C14,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C14,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO DO BRASIL LOCACAO</v>
       </c>
       <c r="E14" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F14" s="102">
         <v>43936</v>
       </c>
       <c r="G14">
@@ -7343,33 +7337,33 @@
       <c r="H14" s="11">
         <v>16.920000000000002</v>
       </c>
-      <c r="I14" s="109">
+      <c r="I14" s="108">
         <f>VLOOKUP(C14,Resumo!$C$7:$H$31,5,1)</f>
         <v>157.74</v>
       </c>
-      <c r="J14" s="109">
+      <c r="J14" s="108">
         <f>I14*G14</f>
         <v>3154.8</v>
       </c>
-      <c r="K14" s="108">
+      <c r="K14" s="107">
         <f>H14/J14</f>
         <v>5.3632559908710535E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="15" spans="1:11" ht="14.65" customHeight="1">
       <c r="A15" s="58" t="str">
-        <f>VLOOKUP(C15,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C15,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B15" t="str">
-        <f>VLOOKUP(C15,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B15" s="58" t="str">
+        <f>VLOOKUP(C15,Cadastro!$A$7:$D$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C15" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="11" t="str">
-        <f>VLOOKUP(C15,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C15,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -7384,33 +7378,33 @@
       <c r="H15">
         <v>9.5500000000000007</v>
       </c>
-      <c r="I15" s="109">
+      <c r="I15" s="108">
         <f>VLOOKUP(C15,Resumo!$C$7:$H$31,5,1)</f>
         <v>11.027215999999999</v>
       </c>
-      <c r="J15" s="109">
+      <c r="J15" s="108">
         <f>I15*G15</f>
         <v>2205.4431999999997</v>
       </c>
-      <c r="K15" s="108">
+      <c r="K15" s="107">
         <f>H15/J15</f>
         <v>4.3301954001807898E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="16" spans="1:11" ht="14.65" customHeight="1">
       <c r="A16" s="58" t="str">
-        <f>VLOOKUP(C16,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C16,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B16" t="str">
-        <f>VLOOKUP(C16,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B16" s="58" t="str">
+        <f>VLOOKUP(C16,Cadastro!$A$7:$D$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C16" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="11" t="str">
-        <f>VLOOKUP(C16,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C16,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -7425,33 +7419,33 @@
       <c r="H16">
         <v>159.71</v>
       </c>
-      <c r="I16" s="109">
+      <c r="I16" s="108">
         <f>VLOOKUP(C16,Resumo!$C$7:$H$31,5,1)</f>
         <v>11.027215999999999</v>
       </c>
-      <c r="J16" s="109">
+      <c r="J16" s="108">
         <f>I16*G16</f>
         <v>6616.3295999999991</v>
       </c>
-      <c r="K16" s="108">
+      <c r="K16" s="107">
         <f>H16/J16</f>
         <v>2.4138761164498219E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="14.65" customHeight="1">
       <c r="A17" s="58" t="str">
-        <f>VLOOKUP(C17,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C17,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B17" t="str">
-        <f>VLOOKUP(C17,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B17" s="58" t="str">
+        <f>VLOOKUP(C17,Cadastro!$A$7:$D$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C17" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="11" t="str">
-        <f>VLOOKUP(C17,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C17,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -7466,33 +7460,33 @@
       <c r="H17">
         <v>31.1</v>
       </c>
-      <c r="I17" s="109">
+      <c r="I17" s="108">
         <f>VLOOKUP(C17,Resumo!$C$7:$H$31,5,1)</f>
         <v>11.027215999999999</v>
       </c>
-      <c r="J17" s="109">
+      <c r="J17" s="108">
         <f>I17*G17</f>
         <v>6616.3295999999991</v>
       </c>
-      <c r="K17" s="108">
+      <c r="K17" s="107">
         <f>H17/J17</f>
         <v>4.7004913419065467E-3</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="14.65" customHeight="1">
       <c r="A18" s="58" t="str">
-        <f>VLOOKUP(C18,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C18,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B18" t="str">
-        <f>VLOOKUP(C18,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B18" s="58" t="str">
+        <f>VLOOKUP(C18,Cadastro!$A$7:$D$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C18" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="11" t="str">
-        <f>VLOOKUP(C18,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C18,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E18" s="11" t="s">
@@ -7507,33 +7501,33 @@
       <c r="H18">
         <v>156.83000000000001</v>
       </c>
-      <c r="I18" s="109">
+      <c r="I18" s="108">
         <f>VLOOKUP(C18,Resumo!$C$7:$H$31,5,1)</f>
         <v>11.027215999999999</v>
       </c>
-      <c r="J18" s="109">
+      <c r="J18" s="108">
         <f>I18*G18</f>
         <v>6616.3295999999991</v>
       </c>
-      <c r="K18" s="108">
+      <c r="K18" s="107">
         <f>H18/J18</f>
         <v>2.3703474506469573E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="14.65" customHeight="1">
       <c r="A19" s="58" t="str">
-        <f>VLOOKUP(C19,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C19,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B19" t="str">
-        <f>VLOOKUP(C19,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B19" s="58" t="str">
+        <f>VLOOKUP(C19,Cadastro!$A$7:$D$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C19" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="11" t="str">
-        <f>VLOOKUP(C19,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C19,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E19" s="58" t="s">
@@ -7548,33 +7542,33 @@
       <c r="H19">
         <v>27.78</v>
       </c>
-      <c r="I19" s="109">
+      <c r="I19" s="108">
         <f>VLOOKUP(C19,Resumo!$C$7:$H$31,5,1)</f>
         <v>11.027215999999999</v>
       </c>
-      <c r="J19" s="109">
+      <c r="J19" s="108">
         <f>I19*G19</f>
         <v>6616.3295999999991</v>
       </c>
-      <c r="K19" s="108">
+      <c r="K19" s="107">
         <f>H19/J19</f>
         <v>4.1987025555679704E-3</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="14.65" customHeight="1">
       <c r="A20" s="58" t="str">
-        <f>VLOOKUP(C20,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C20,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B20" t="str">
-        <f>VLOOKUP(C20,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B20" s="58" t="str">
+        <f>VLOOKUP(C20,Cadastro!$A$7:$D$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="11" t="str">
-        <f>VLOOKUP(C20,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C20,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E20" t="s">
@@ -7589,33 +7583,33 @@
       <c r="H20">
         <v>47.97</v>
       </c>
-      <c r="I20" s="109">
+      <c r="I20" s="108">
         <f>VLOOKUP(C20,Resumo!$C$7:$H$31,5,1)</f>
         <v>11.027215999999999</v>
       </c>
-      <c r="J20" s="109">
+      <c r="J20" s="108">
         <f>I20*G20</f>
         <v>6616.3295999999991</v>
       </c>
-      <c r="K20" s="108">
+      <c r="K20" s="107">
         <f>H20/J20</f>
         <v>7.2502433977896154E-3</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="14.65" customHeight="1">
       <c r="A21" s="58" t="str">
-        <f>VLOOKUP(C21,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C21,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B21" t="str">
-        <f>VLOOKUP(C21,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B21" s="58" t="str">
+        <f>VLOOKUP(C21,Cadastro!$A$7:$D$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C21" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="11" t="str">
-        <f>VLOOKUP(C21,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C21,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E21" t="s">
@@ -7630,33 +7624,33 @@
       <c r="H21">
         <v>25.21</v>
       </c>
-      <c r="I21" s="109">
+      <c r="I21" s="108">
         <f>VLOOKUP(C21,Resumo!$C$7:$H$31,5,1)</f>
         <v>11.027215999999999</v>
       </c>
-      <c r="J21" s="109">
+      <c r="J21" s="108">
         <f>I21*G21</f>
         <v>6616.3295999999991</v>
       </c>
-      <c r="K21" s="108">
+      <c r="K21" s="107">
         <f>H21/J21</f>
         <v>3.8102696697576862E-3</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="14.65" customHeight="1">
       <c r="A22" s="58" t="str">
-        <f>VLOOKUP(C22,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C22,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B22" t="str">
-        <f>VLOOKUP(C22,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B22" s="58" t="str">
+        <f>VLOOKUP(C22,Cadastro!$A$7:$D$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C22" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="11" t="str">
-        <f>VLOOKUP(C22,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C22,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E22" t="s">
@@ -7671,33 +7665,33 @@
       <c r="H22">
         <v>1.59</v>
       </c>
-      <c r="I22" s="109">
+      <c r="I22" s="108">
         <f>VLOOKUP(C22,Resumo!$C$7:$H$31,5,1)</f>
         <v>11.027215999999999</v>
       </c>
-      <c r="J22" s="109">
+      <c r="J22" s="108">
         <f>I22*G22</f>
         <v>6616.3295999999991</v>
       </c>
-      <c r="K22" s="108">
+      <c r="K22" s="107">
         <f>H22/J22</f>
         <v>2.40314509119981E-4</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.65" customHeight="1">
       <c r="A23" s="58" t="str">
-        <f>VLOOKUP(C23,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C23,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B23" t="str">
-        <f>VLOOKUP(C23,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B23" s="58" t="str">
+        <f>VLOOKUP(C23,Cadastro!$A$7:$D$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C23" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="11" t="str">
-        <f>VLOOKUP(C23,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C23,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E23" t="s">
@@ -7712,33 +7706,33 @@
       <c r="H23">
         <v>0.38</v>
       </c>
-      <c r="I23" s="109">
+      <c r="I23" s="108">
         <f>VLOOKUP(C23,Resumo!$C$7:$H$31,5,1)</f>
         <v>11.027215999999999</v>
       </c>
-      <c r="J23" s="109">
+      <c r="J23" s="108">
         <f>I23*G23</f>
         <v>6616.3295999999991</v>
       </c>
-      <c r="K23" s="108">
+      <c r="K23" s="107">
         <f>H23/J23</f>
         <v>5.7433656267668413E-5</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="14.65" customHeight="1">
       <c r="A24" s="58" t="str">
-        <f>VLOOKUP(C24,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C24,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B24" t="str">
-        <f>VLOOKUP(C24,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B24" s="58" t="str">
+        <f>VLOOKUP(C24,Cadastro!$A$7:$D$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C24" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="11" t="str">
-        <f>VLOOKUP(C24,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C24,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E24" t="s">
@@ -7753,33 +7747,33 @@
       <c r="H24">
         <v>14.68</v>
       </c>
-      <c r="I24" s="109">
+      <c r="I24" s="108">
         <f>VLOOKUP(C24,Resumo!$C$7:$H$31,5,1)</f>
         <v>11.027215999999999</v>
       </c>
-      <c r="J24" s="109">
+      <c r="J24" s="108">
         <f>I24*G24</f>
         <v>6616.3295999999991</v>
       </c>
-      <c r="K24" s="108">
+      <c r="K24" s="107">
         <f>H24/J24</f>
         <v>2.2187528263404536E-3</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="14.65" customHeight="1">
       <c r="A25" s="58" t="str">
-        <f>VLOOKUP(C25,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C25,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B25" t="str">
-        <f>VLOOKUP(C25,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B25" s="58" t="str">
+        <f>VLOOKUP(C25,Cadastro!$A$7:$D$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="11" t="str">
-        <f>VLOOKUP(C25,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C25,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E25" t="s">
@@ -7794,39 +7788,39 @@
       <c r="H25">
         <v>7.89</v>
       </c>
-      <c r="I25" s="109">
+      <c r="I25" s="108">
         <f>VLOOKUP(C25,Resumo!$C$7:$H$31,5,1)</f>
         <v>11.027215999999999</v>
       </c>
-      <c r="J25" s="109">
+      <c r="J25" s="108">
         <f>I25*G25</f>
         <v>6616.3295999999991</v>
       </c>
-      <c r="K25" s="108">
+      <c r="K25" s="107">
         <f>H25/J25</f>
         <v>1.1925040735576416E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.65" hidden="1" customHeight="1">
+    <row r="26" spans="1:16" ht="14.65" customHeight="1">
       <c r="A26" s="58" t="str">
-        <f>VLOOKUP(C26,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C26,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B26" t="str">
-        <f>VLOOKUP(C26,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B26" s="58" t="str">
+        <f>VLOOKUP(C26,Cadastro!$A$7:$D$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C26" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="11" t="str">
-        <f>VLOOKUP(C26,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C26,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E26" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="103">
+      <c r="F26" s="102">
         <v>43874</v>
       </c>
       <c r="G26">
@@ -7835,15 +7829,15 @@
       <c r="H26" s="11">
         <v>10.73</v>
       </c>
-      <c r="I26" s="109">
+      <c r="I26" s="108">
         <f>VLOOKUP(C26,Resumo!$C$7:$H$31,5,1)</f>
         <v>11.027215999999999</v>
       </c>
-      <c r="J26" s="109">
+      <c r="J26" s="108">
         <f>I26*G26</f>
         <v>6616.3295999999991</v>
       </c>
-      <c r="K26" s="108">
+      <c r="K26" s="107">
         <f>H26/J26</f>
         <v>1.6217450835581109E-3</v>
       </c>
@@ -7852,26 +7846,26 @@
         <v>653</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="14.65" hidden="1" customHeight="1">
+    <row r="27" spans="1:16" ht="14.65" customHeight="1">
       <c r="A27" s="58" t="str">
-        <f>VLOOKUP(C27,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C27,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B27" t="str">
-        <f>VLOOKUP(C27,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B27" s="58" t="str">
+        <f>VLOOKUP(C27,Cadastro!$A$7:$D$55,3,1)</f>
         <v>01.027.058/0001-91</v>
       </c>
       <c r="C27" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="11" t="str">
-        <f>VLOOKUP(C27,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C27,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIELO SA</v>
       </c>
       <c r="E27" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="103">
+      <c r="F27" s="102">
         <v>43874</v>
       </c>
       <c r="G27">
@@ -7880,15 +7874,15 @@
       <c r="H27" s="11">
         <v>4.54</v>
       </c>
-      <c r="I27" s="109">
+      <c r="I27" s="108">
         <f>VLOOKUP(C27,Resumo!$C$7:$H$31,5,1)</f>
         <v>11.027215999999999</v>
       </c>
-      <c r="J27" s="109">
+      <c r="J27" s="108">
         <f>I27*G27</f>
         <v>6616.3295999999991</v>
       </c>
-      <c r="K27" s="108">
+      <c r="K27" s="107">
         <f>H27/J27</f>
         <v>6.8618105119793316E-4</v>
       </c>
@@ -7896,26 +7890,26 @@
         <v>697.77</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="14.65" hidden="1" customHeight="1">
+    <row r="28" spans="1:16" ht="14.65" customHeight="1">
       <c r="A28" s="58" t="str">
-        <f>VLOOKUP(C28,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C28,Cadastro!$A$7:$D$55,4,1)</f>
         <v>ENERGIA</v>
       </c>
-      <c r="B28" t="str">
-        <f>VLOOKUP(C28,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B28" s="58" t="str">
+        <f>VLOOKUP(C28,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.155.730/0001-64</v>
       </c>
       <c r="C28" s="58" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="11" t="str">
-        <f>VLOOKUP(C28,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C28,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIA DE ENERGIA DE MINAS GERAIS ON</v>
       </c>
       <c r="E28" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="103">
+      <c r="F28" s="102">
         <v>44012</v>
       </c>
       <c r="G28">
@@ -7924,15 +7918,15 @@
       <c r="H28" s="11">
         <v>34.97</v>
       </c>
-      <c r="I28" s="109">
+      <c r="I28" s="108">
         <f>VLOOKUP(C28,Resumo!$C$7:$H$31,5,1)</f>
         <v>13.17</v>
       </c>
-      <c r="J28" s="109">
+      <c r="J28" s="108">
         <f>I28*G28</f>
         <v>3951</v>
       </c>
-      <c r="K28" s="108">
+      <c r="K28" s="107">
         <f>H28/J28</f>
         <v>8.8509238167552521E-3</v>
       </c>
@@ -7941,26 +7935,26 @@
         <v>697.77</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14.65" hidden="1" customHeight="1">
+    <row r="29" spans="1:16" ht="14.65" customHeight="1">
       <c r="A29" s="58" t="str">
-        <f>VLOOKUP(C29,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C29,Cadastro!$A$7:$D$55,4,1)</f>
         <v>ENERGIA</v>
       </c>
-      <c r="B29" t="str">
-        <f>VLOOKUP(C29,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B29" s="58" t="str">
+        <f>VLOOKUP(C29,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.155.730/0001-64</v>
       </c>
       <c r="C29" s="58" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="11" t="str">
-        <f>VLOOKUP(C29,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C29,Cadastro!$A$7:$D$55,2,1)</f>
         <v>CIA DE ENERGIA DE MINAS GERAIS ON</v>
       </c>
       <c r="E29" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="103">
+      <c r="F29" s="102">
         <v>44195</v>
       </c>
       <c r="G29">
@@ -7969,33 +7963,33 @@
       <c r="H29" s="11">
         <v>34.97</v>
       </c>
-      <c r="I29" s="109">
+      <c r="I29" s="108">
         <f>VLOOKUP(C29,Resumo!$C$7:$H$31,5,1)</f>
         <v>13.17</v>
       </c>
-      <c r="J29" s="109">
+      <c r="J29" s="108">
         <f>I29*G29</f>
         <v>3951</v>
       </c>
-      <c r="K29" s="108">
+      <c r="K29" s="107">
         <f>H29/J29</f>
         <v>8.8509238167552521E-3</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.65" customHeight="1">
       <c r="A30" s="58" t="str">
-        <f>VLOOKUP(C30,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C30,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B30" t="str">
-        <f>VLOOKUP(C30,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B30" s="58" t="str">
+        <f>VLOOKUP(C30,Cadastro!$A$7:$D$55,3,1)</f>
         <v>92.690.783/0001-09</v>
       </c>
       <c r="C30" s="55" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="11" t="str">
-        <f>VLOOKUP(C30,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C30,Cadastro!$A$7:$D$55,2,1)</f>
         <v>METALURGICA GERDAU ON</v>
       </c>
       <c r="E30" t="s">
@@ -8010,33 +8004,33 @@
       <c r="H30">
         <v>8</v>
       </c>
-      <c r="I30" s="109">
+      <c r="I30" s="108">
         <f>VLOOKUP(C30,Resumo!$C$7:$H$31,5,1)</f>
         <v>22.51</v>
       </c>
-      <c r="J30" s="109">
+      <c r="J30" s="108">
         <f>I30*G30</f>
         <v>4502</v>
       </c>
-      <c r="K30" s="108">
+      <c r="K30" s="107">
         <f>H30/J30</f>
         <v>1.7769880053309639E-3</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="14.65" customHeight="1">
       <c r="A31" s="58" t="str">
-        <f>VLOOKUP(C31,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C31,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B31" t="str">
-        <f>VLOOKUP(C31,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B31" s="58" t="str">
+        <f>VLOOKUP(C31,Cadastro!$A$7:$D$55,3,1)</f>
         <v>92.690.783/0001-09</v>
       </c>
       <c r="C31" s="58" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="11" t="str">
-        <f>VLOOKUP(C31,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C31,Cadastro!$A$7:$D$55,2,1)</f>
         <v>METALURGICA GERDAU ON</v>
       </c>
       <c r="E31" t="s">
@@ -8051,33 +8045,33 @@
       <c r="H31">
         <v>4</v>
       </c>
-      <c r="I31" s="109">
+      <c r="I31" s="108">
         <f>VLOOKUP(C31,Resumo!$C$7:$H$31,5,1)</f>
         <v>22.51</v>
       </c>
-      <c r="J31" s="109">
+      <c r="J31" s="108">
         <f>I31*G31</f>
         <v>4502</v>
       </c>
-      <c r="K31" s="108">
+      <c r="K31" s="107">
         <f>H31/J31</f>
         <v>8.8849400266548197E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="14.65" hidden="1" customHeight="1">
+    <row r="32" spans="1:16" ht="14.65" customHeight="1">
       <c r="A32" s="58" t="str">
-        <f>VLOOKUP(C32,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C32,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B32" t="str">
-        <f>VLOOKUP(C32,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B32" s="58" t="str">
+        <f>VLOOKUP(C32,Cadastro!$A$7:$D$55,3,1)</f>
         <v>02.932.074/0001-91</v>
       </c>
       <c r="C32" s="58" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="11" t="str">
-        <f>VLOOKUP(C32,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C32,Cadastro!$A$7:$D$55,2,1)</f>
         <v>HYPERMARCAS S/A</v>
       </c>
       <c r="E32" t="s">
@@ -8092,39 +8086,39 @@
       <c r="H32" s="11">
         <v>2.2400000000000002</v>
       </c>
-      <c r="I32" s="109">
+      <c r="I32" s="108">
         <f>VLOOKUP(C32,Resumo!$C$7:$H$31,5,1)</f>
         <v>22.51</v>
       </c>
-      <c r="J32" s="109">
+      <c r="J32" s="108">
         <f>I32*G32</f>
         <v>2251</v>
       </c>
-      <c r="K32" s="108">
+      <c r="K32" s="107">
         <f>H32/J32</f>
         <v>9.9511328298533997E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="33" spans="1:11" ht="14.65" customHeight="1">
       <c r="A33" s="58" t="str">
-        <f>VLOOKUP(C33,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C33,Cadastro!$A$7:$D$55,4,1)</f>
         <v>RISCO</v>
       </c>
-      <c r="B33" t="str">
-        <f>VLOOKUP(C33,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B33" s="58" t="str">
+        <f>VLOOKUP(C33,Cadastro!$A$7:$D$55,3,1)</f>
         <v>02.932.074/0001-91</v>
       </c>
       <c r="C33" s="58" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="11" t="str">
-        <f>VLOOKUP(C33,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C33,Cadastro!$A$7:$D$55,2,1)</f>
         <v>HYPERMARCAS S/A</v>
       </c>
       <c r="E33" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="103">
+      <c r="F33" s="102">
         <v>43837</v>
       </c>
       <c r="G33">
@@ -8133,33 +8127,33 @@
       <c r="H33" s="11">
         <v>19.41</v>
       </c>
-      <c r="I33" s="109">
+      <c r="I33" s="108">
         <f>VLOOKUP(C33,Resumo!$C$7:$H$31,5,1)</f>
         <v>22.51</v>
       </c>
-      <c r="J33" s="109">
+      <c r="J33" s="108">
         <f>I33*G33</f>
         <v>2251</v>
       </c>
-      <c r="K33" s="108">
+      <c r="K33" s="107">
         <f>H33/J33</f>
         <v>8.6228342958685027E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="34" spans="1:11" ht="14.65" customHeight="1">
       <c r="A34" s="58" t="str">
-        <f>VLOOKUP(C34,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C34,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B34" t="str">
-        <f>VLOOKUP(C34,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B34" s="58" t="str">
+        <f>VLOOKUP(C34,Cadastro!$A$7:$D$55,3,1)</f>
         <v>61.532.644/0001-15</v>
       </c>
       <c r="C34" s="58" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="11" t="str">
-        <f>VLOOKUP(C34,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C34,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ITAU INVESTIMENTOS SA PN</v>
       </c>
       <c r="E34" s="11" t="s">
@@ -8174,33 +8168,33 @@
       <c r="H34">
         <v>4.5</v>
       </c>
-      <c r="I34" s="109">
+      <c r="I34" s="108">
         <f>VLOOKUP(C34,Resumo!$C$7:$H$31,5,1)</f>
         <v>22.51</v>
       </c>
-      <c r="J34" s="109">
+      <c r="J34" s="108">
         <f>I34*G34</f>
         <v>6753.0000000000009</v>
       </c>
-      <c r="K34" s="108">
+      <c r="K34" s="107">
         <f>H34/J34</f>
         <v>6.6637050199911145E-4</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.65" customHeight="1">
       <c r="A35" s="58" t="str">
-        <f>VLOOKUP(C35,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C35,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B35" t="str">
-        <f>VLOOKUP(C35,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B35" s="58" t="str">
+        <f>VLOOKUP(C35,Cadastro!$A$7:$D$55,3,1)</f>
         <v>60.872.504/0001-23</v>
       </c>
       <c r="C35" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="11" t="str">
-        <f>VLOOKUP(C35,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C35,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ITAÚ UNIBANCO HOLDING S.A.</v>
       </c>
       <c r="E35" t="s">
@@ -8215,33 +8209,33 @@
       <c r="H35">
         <v>1.5</v>
       </c>
-      <c r="I35" s="109">
+      <c r="I35" s="108">
         <f>VLOOKUP(C35,Resumo!$C$7:$H$31,5,1)</f>
         <v>32.15</v>
       </c>
-      <c r="J35" s="109">
+      <c r="J35" s="108">
         <f>I35*G35</f>
         <v>3215</v>
       </c>
-      <c r="K35" s="108">
+      <c r="K35" s="107">
         <f>H35/J35</f>
         <v>4.6656298600311044E-4</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.65" customHeight="1">
       <c r="A36" s="58" t="str">
-        <f>VLOOKUP(C36,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C36,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B36" t="str">
-        <f>VLOOKUP(C36,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B36" s="58" t="str">
+        <f>VLOOKUP(C36,Cadastro!$A$7:$D$55,3,1)</f>
         <v>60.872.504/0001-23</v>
       </c>
       <c r="C36" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="11" t="str">
-        <f>VLOOKUP(C36,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C36,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ITAÚ UNIBANCO HOLDING S.A.</v>
       </c>
       <c r="E36" t="s">
@@ -8256,39 +8250,39 @@
       <c r="H36">
         <v>1.5</v>
       </c>
-      <c r="I36" s="109">
+      <c r="I36" s="108">
         <f>VLOOKUP(C36,Resumo!$C$7:$H$31,5,1)</f>
         <v>32.15</v>
       </c>
-      <c r="J36" s="109">
+      <c r="J36" s="108">
         <f>I36*G36</f>
         <v>3215</v>
       </c>
-      <c r="K36" s="108">
+      <c r="K36" s="107">
         <f>H36/J36</f>
         <v>4.6656298600311044E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="37" spans="1:11" ht="14.65" customHeight="1">
       <c r="A37" s="58" t="str">
-        <f>VLOOKUP(C37,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C37,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B37" t="str">
-        <f>VLOOKUP(C37,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B37" s="58" t="str">
+        <f>VLOOKUP(C37,Cadastro!$A$7:$D$55,3,1)</f>
         <v>60.872.504/0001-23</v>
       </c>
       <c r="C37" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="11" t="str">
-        <f>VLOOKUP(C37,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C37,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ITAÚ UNIBANCO HOLDING S.A.</v>
       </c>
       <c r="E37" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="103">
+      <c r="F37" s="102">
         <v>43832</v>
       </c>
       <c r="G37">
@@ -8297,39 +8291,39 @@
       <c r="H37" s="11">
         <v>1.5</v>
       </c>
-      <c r="I37" s="109">
+      <c r="I37" s="108">
         <f>VLOOKUP(C37,Resumo!$C$7:$H$31,5,1)</f>
         <v>32.15</v>
       </c>
-      <c r="J37" s="109">
+      <c r="J37" s="108">
         <f>I37*G37</f>
         <v>3215</v>
       </c>
-      <c r="K37" s="108">
+      <c r="K37" s="107">
         <f>H37/J37</f>
         <v>4.6656298600311044E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="38" spans="1:11" ht="14.65" customHeight="1">
       <c r="A38" s="58" t="str">
-        <f>VLOOKUP(C38,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C38,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B38" t="str">
-        <f>VLOOKUP(C38,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B38" s="58" t="str">
+        <f>VLOOKUP(C38,Cadastro!$A$7:$D$55,3,1)</f>
         <v>60.872.504/0001-23</v>
       </c>
       <c r="C38" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="11" t="str">
-        <f>VLOOKUP(C38,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C38,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ITAÚ UNIBANCO HOLDING S.A.</v>
       </c>
       <c r="E38" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="103">
+      <c r="F38" s="102">
         <v>43864</v>
       </c>
       <c r="G38">
@@ -8338,39 +8332,39 @@
       <c r="H38" s="11">
         <v>1.5</v>
       </c>
-      <c r="I38" s="109">
+      <c r="I38" s="108">
         <f>VLOOKUP(C38,Resumo!$C$7:$H$31,5,1)</f>
         <v>32.15</v>
       </c>
-      <c r="J38" s="109">
+      <c r="J38" s="108">
         <f>I38*G38</f>
         <v>3215</v>
       </c>
-      <c r="K38" s="108">
+      <c r="K38" s="107">
         <f>H38/J38</f>
         <v>4.6656298600311044E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="39" spans="1:11" ht="14.65" customHeight="1">
       <c r="A39" s="58" t="str">
-        <f>VLOOKUP(C39,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C39,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B39" t="str">
-        <f>VLOOKUP(C39,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B39" s="58" t="str">
+        <f>VLOOKUP(C39,Cadastro!$A$7:$D$55,3,1)</f>
         <v>60.872.504/0001-23</v>
       </c>
       <c r="C39" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="11" t="str">
-        <f>VLOOKUP(C39,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C39,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ITAÚ UNIBANCO HOLDING S.A.</v>
       </c>
       <c r="E39" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="103">
+      <c r="F39" s="102">
         <v>43896</v>
       </c>
       <c r="G39">
@@ -8379,39 +8373,39 @@
       <c r="H39" s="11">
         <v>3.19</v>
       </c>
-      <c r="I39" s="109">
+      <c r="I39" s="108">
         <f>VLOOKUP(C39,Resumo!$C$7:$H$31,5,1)</f>
         <v>32.15</v>
       </c>
-      <c r="J39" s="109">
+      <c r="J39" s="108">
         <f>I39*G39</f>
         <v>3215</v>
       </c>
-      <c r="K39" s="108">
+      <c r="K39" s="107">
         <f>H39/J39</f>
         <v>9.9222395023328158E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="40" spans="1:11" ht="14.65" customHeight="1">
       <c r="A40" s="58" t="str">
-        <f>VLOOKUP(C40,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C40,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B40" t="str">
-        <f>VLOOKUP(C40,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B40" s="58" t="str">
+        <f>VLOOKUP(C40,Cadastro!$A$7:$D$55,3,1)</f>
         <v>60.872.504/0001-23</v>
       </c>
       <c r="C40" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="11" t="str">
-        <f>VLOOKUP(C40,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C40,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ITAÚ UNIBANCO HOLDING S.A.</v>
       </c>
       <c r="E40" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="103">
+      <c r="F40" s="102">
         <v>43896</v>
       </c>
       <c r="G40">
@@ -8420,39 +8414,39 @@
       <c r="H40" s="11">
         <v>48.32</v>
       </c>
-      <c r="I40" s="109">
+      <c r="I40" s="108">
         <f>VLOOKUP(C40,Resumo!$C$7:$H$31,5,1)</f>
         <v>32.15</v>
       </c>
-      <c r="J40" s="109">
+      <c r="J40" s="108">
         <f>I40*G40</f>
         <v>3215</v>
       </c>
-      <c r="K40" s="108">
+      <c r="K40" s="107">
         <f>H40/J40</f>
         <v>1.5029548989113531E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="41" spans="1:11" ht="14.65" customHeight="1">
       <c r="A41" s="58" t="str">
-        <f>VLOOKUP(C41,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C41,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B41" t="str">
-        <f>VLOOKUP(C41,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B41" s="58" t="str">
+        <f>VLOOKUP(C41,Cadastro!$A$7:$D$55,3,1)</f>
         <v>60.872.504/0001-23</v>
       </c>
       <c r="C41" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="11" t="str">
-        <f>VLOOKUP(C41,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C41,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ITAÚ UNIBANCO HOLDING S.A.</v>
       </c>
       <c r="E41" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="103">
+      <c r="F41" s="102">
         <v>43896</v>
       </c>
       <c r="G41">
@@ -8461,39 +8455,39 @@
       <c r="H41" s="11">
         <v>44.5</v>
       </c>
-      <c r="I41" s="109">
+      <c r="I41" s="108">
         <f>VLOOKUP(C41,Resumo!$C$7:$H$31,5,1)</f>
         <v>32.15</v>
       </c>
-      <c r="J41" s="109">
+      <c r="J41" s="108">
         <f>I41*G41</f>
         <v>3215</v>
       </c>
-      <c r="K41" s="108">
+      <c r="K41" s="107">
         <f>H41/J41</f>
         <v>1.3841368584758942E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="42" spans="1:11" ht="14.65" customHeight="1">
       <c r="A42" s="58" t="str">
-        <f>VLOOKUP(C42,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C42,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B42" t="str">
-        <f>VLOOKUP(C42,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B42" s="58" t="str">
+        <f>VLOOKUP(C42,Cadastro!$A$7:$D$55,3,1)</f>
         <v>60.872.504/0001-23</v>
       </c>
       <c r="C42" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="11" t="str">
-        <f>VLOOKUP(C42,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C42,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ITAÚ UNIBANCO HOLDING S.A.</v>
       </c>
       <c r="E42" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="103">
+      <c r="F42" s="102">
         <v>43922</v>
       </c>
       <c r="G42">
@@ -8502,39 +8496,39 @@
       <c r="H42" s="11">
         <v>3</v>
       </c>
-      <c r="I42" s="109">
+      <c r="I42" s="108">
         <f>VLOOKUP(C42,Resumo!$C$7:$H$31,5,1)</f>
         <v>32.15</v>
       </c>
-      <c r="J42" s="109">
+      <c r="J42" s="108">
         <f>I42*G42</f>
         <v>6430</v>
       </c>
-      <c r="K42" s="108">
+      <c r="K42" s="107">
         <f>H42/J42</f>
         <v>4.6656298600311044E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="43" spans="1:11" ht="14.65" customHeight="1">
       <c r="A43" s="58" t="str">
-        <f>VLOOKUP(C43,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C43,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B43" t="str">
-        <f>VLOOKUP(C43,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B43" s="58" t="str">
+        <f>VLOOKUP(C43,Cadastro!$A$7:$D$55,3,1)</f>
         <v>60.872.504/0001-23</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="11" t="str">
-        <f>VLOOKUP(C43,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C43,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ITAÚ UNIBANCO HOLDING S.A.</v>
       </c>
       <c r="E43" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="103">
+      <c r="F43" s="102">
         <v>43892</v>
       </c>
       <c r="G43">
@@ -8543,39 +8537,39 @@
       <c r="H43" s="11">
         <v>1.5</v>
       </c>
-      <c r="I43" s="109">
+      <c r="I43" s="108">
         <f>VLOOKUP(C43,Resumo!$C$7:$H$31,5,1)</f>
         <v>32.15</v>
       </c>
-      <c r="J43" s="109">
+      <c r="J43" s="108">
         <f>I43*G43</f>
         <v>3215</v>
       </c>
-      <c r="K43" s="108">
+      <c r="K43" s="107">
         <f>H43/J43</f>
         <v>4.6656298600311044E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="44" spans="1:11" ht="14.65" customHeight="1">
       <c r="A44" s="58" t="str">
-        <f>VLOOKUP(C44,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C44,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
-      <c r="B44" t="str">
-        <f>VLOOKUP(C44,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B44" s="58" t="str">
+        <f>VLOOKUP(C44,Cadastro!$A$7:$D$55,3,1)</f>
         <v>60.872.504/0001-23</v>
       </c>
       <c r="C44" t="s">
         <v>24</v>
       </c>
       <c r="D44" s="11" t="str">
-        <f>VLOOKUP(C44,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C44,Cadastro!$A$7:$D$55,2,1)</f>
         <v>ITAÚ UNIBANCO HOLDING S.A.</v>
       </c>
       <c r="E44" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="102">
         <v>43955</v>
       </c>
       <c r="G44">
@@ -8584,33 +8578,33 @@
       <c r="H44" s="11">
         <v>3</v>
       </c>
-      <c r="I44" s="109">
+      <c r="I44" s="108">
         <f>VLOOKUP(C44,Resumo!$C$7:$H$31,5,1)</f>
         <v>32.15</v>
       </c>
-      <c r="J44" s="109">
+      <c r="J44" s="108">
         <f>I44*G44</f>
         <v>6430</v>
       </c>
-      <c r="K44" s="108">
+      <c r="K44" s="107">
         <f>H44/J44</f>
         <v>4.6656298600311044E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="45" spans="1:11" ht="14.65" customHeight="1">
       <c r="A45" s="58" t="str">
-        <f>VLOOKUP(C45,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C45,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
-      <c r="B45" t="str">
-        <f>VLOOKUP(C45,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B45" s="58" t="str">
+        <f>VLOOKUP(C45,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.000.167/0001-01</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="11" t="str">
-        <f>VLOOKUP(C45,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C45,Cadastro!$A$7:$D$55,2,1)</f>
         <v>PETRÓLEO BRASILEIRO S.A. PN</v>
       </c>
       <c r="E45" s="11" t="s">
@@ -8625,33 +8619,33 @@
       <c r="H45">
         <v>12.75</v>
       </c>
-      <c r="I45" s="109">
+      <c r="I45" s="108">
         <f>VLOOKUP(C45,Resumo!$C$7:$H$31,5,1)</f>
         <v>19.202141666666666</v>
       </c>
-      <c r="J45" s="109">
+      <c r="J45" s="108">
         <f>I45*G45</f>
         <v>5760.6424999999999</v>
       </c>
-      <c r="K45" s="108">
+      <c r="K45" s="107">
         <f>H45/J45</f>
         <v>2.2132947843925394E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="46" spans="1:11" ht="14.65" customHeight="1">
       <c r="A46" s="58" t="str">
-        <f>VLOOKUP(C46,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C46,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
-      <c r="B46" t="str">
-        <f>VLOOKUP(C46,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B46" s="58" t="str">
+        <f>VLOOKUP(C46,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.000.167/0001-01</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="11" t="str">
-        <f>VLOOKUP(C46,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C46,Cadastro!$A$7:$D$55,2,1)</f>
         <v>PETRÓLEO BRASILEIRO S.A. PN</v>
       </c>
       <c r="E46" s="11" t="s">
@@ -8666,33 +8660,33 @@
       <c r="H46">
         <v>25.5</v>
       </c>
-      <c r="I46" s="109">
+      <c r="I46" s="108">
         <f>VLOOKUP(C46,Resumo!$C$7:$H$31,5,1)</f>
         <v>19.202141666666666</v>
       </c>
-      <c r="J46" s="109">
+      <c r="J46" s="108">
         <f>I46*G46</f>
         <v>5760.6424999999999</v>
       </c>
-      <c r="K46" s="108">
+      <c r="K46" s="107">
         <f>H46/J46</f>
         <v>4.4265895687850788E-3</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.65" customHeight="1">
       <c r="A47" s="58" t="str">
-        <f>VLOOKUP(C47,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C47,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
-      <c r="B47" t="str">
-        <f>VLOOKUP(C47,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B47" s="58" t="str">
+        <f>VLOOKUP(C47,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.000.167/0001-01</v>
       </c>
       <c r="C47" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="11" t="str">
-        <f>VLOOKUP(C47,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C47,Cadastro!$A$7:$D$55,2,1)</f>
         <v>PETRÓLEO BRASILEIRO S.A. PN</v>
       </c>
       <c r="E47" t="s">
@@ -8707,33 +8701,33 @@
       <c r="H47">
         <v>178.5</v>
       </c>
-      <c r="I47" s="109">
+      <c r="I47" s="108">
         <f>VLOOKUP(C47,Resumo!$C$7:$H$31,5,1)</f>
         <v>19.202141666666666</v>
       </c>
-      <c r="J47" s="109">
+      <c r="J47" s="108">
         <f>I47*G47</f>
         <v>5760.6424999999999</v>
       </c>
-      <c r="K47" s="108">
+      <c r="K47" s="107">
         <f>H47/J47</f>
         <v>3.0986126981495554E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.65" customHeight="1">
       <c r="A48" s="58" t="str">
-        <f>VLOOKUP(C48,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C48,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
-      <c r="B48" t="str">
-        <f>VLOOKUP(C48,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B48" s="58" t="str">
+        <f>VLOOKUP(C48,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.000.167/0001-01</v>
       </c>
       <c r="C48" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="11" t="str">
-        <f>VLOOKUP(C48,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C48,Cadastro!$A$7:$D$55,2,1)</f>
         <v>PETRÓLEO BRASILEIRO S.A. PN</v>
       </c>
       <c r="E48" t="s">
@@ -8748,33 +8742,33 @@
       <c r="H48">
         <v>3.85</v>
       </c>
-      <c r="I48" s="109">
+      <c r="I48" s="108">
         <f>VLOOKUP(C48,Resumo!$C$7:$H$31,5,1)</f>
         <v>19.202141666666666</v>
       </c>
-      <c r="J48" s="109">
+      <c r="J48" s="108">
         <f>I48*G48</f>
         <v>5760.6424999999999</v>
       </c>
-      <c r="K48" s="108">
+      <c r="K48" s="107">
         <f>H48/J48</f>
         <v>6.6832822901264927E-4</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.65" customHeight="1">
       <c r="A49" s="58" t="str">
-        <f>VLOOKUP(C49,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C49,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
-      <c r="B49" t="str">
-        <f>VLOOKUP(C49,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B49" s="58" t="str">
+        <f>VLOOKUP(C49,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.000.167/0001-01</v>
       </c>
       <c r="C49" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="11" t="str">
-        <f>VLOOKUP(C49,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C49,Cadastro!$A$7:$D$55,2,1)</f>
         <v>PETRÓLEO BRASILEIRO S.A. PN</v>
       </c>
       <c r="E49" t="s">
@@ -8789,33 +8783,33 @@
       <c r="H49">
         <v>5.71</v>
       </c>
-      <c r="I49" s="109">
+      <c r="I49" s="108">
         <f>VLOOKUP(C49,Resumo!$C$7:$H$31,5,1)</f>
         <v>19.202141666666666</v>
       </c>
-      <c r="J49" s="109">
+      <c r="J49" s="108">
         <f>I49*G49</f>
         <v>5760.6424999999999</v>
       </c>
-      <c r="K49" s="108">
+      <c r="K49" s="107">
         <f>H49/J49</f>
         <v>9.9120887991226668E-4</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.65" customHeight="1">
       <c r="A50" s="58" t="str">
-        <f>VLOOKUP(C50,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C50,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
-      <c r="B50" t="str">
-        <f>VLOOKUP(C50,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B50" s="58" t="str">
+        <f>VLOOKUP(C50,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.000.167/0001-01</v>
       </c>
       <c r="C50" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="11" t="str">
-        <f>VLOOKUP(C50,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C50,Cadastro!$A$7:$D$55,2,1)</f>
         <v>PETRÓLEO BRASILEIRO S.A. PN</v>
       </c>
       <c r="E50" t="s">
@@ -8830,33 +8824,33 @@
       <c r="H50">
         <v>0.11</v>
       </c>
-      <c r="I50" s="109">
+      <c r="I50" s="108">
         <f>VLOOKUP(C50,Resumo!$C$7:$H$31,5,1)</f>
         <v>19.202141666666666</v>
       </c>
-      <c r="J50" s="109">
+      <c r="J50" s="108">
         <f>I50*G50</f>
         <v>5760.6424999999999</v>
       </c>
-      <c r="K50" s="108">
+      <c r="K50" s="107">
         <f>H50/J50</f>
         <v>1.9095092257504265E-5</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.65" customHeight="1">
       <c r="A51" s="58" t="str">
-        <f>VLOOKUP(C51,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C51,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
-      <c r="B51" t="str">
-        <f>VLOOKUP(C51,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B51" s="58" t="str">
+        <f>VLOOKUP(C51,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.000.167/0001-01</v>
       </c>
       <c r="C51" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="11" t="str">
-        <f>VLOOKUP(C51,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C51,Cadastro!$A$7:$D$55,2,1)</f>
         <v>PETRÓLEO BRASILEIRO S.A. PN</v>
       </c>
       <c r="E51" t="s">
@@ -8871,33 +8865,33 @@
       <c r="H51">
         <v>25.5</v>
       </c>
-      <c r="I51" s="109">
+      <c r="I51" s="108">
         <f>VLOOKUP(C51,Resumo!$C$7:$H$31,5,1)</f>
         <v>19.202141666666666</v>
       </c>
-      <c r="J51" s="109">
+      <c r="J51" s="108">
         <f>I51*G51</f>
         <v>5760.6424999999999</v>
       </c>
-      <c r="K51" s="108">
+      <c r="K51" s="107">
         <f>H51/J51</f>
         <v>4.4265895687850788E-3</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.65" customHeight="1">
       <c r="A52" s="58" t="str">
-        <f>VLOOKUP(C52,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C52,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
-      <c r="B52" t="str">
-        <f>VLOOKUP(C52,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B52" s="58" t="str">
+        <f>VLOOKUP(C52,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.000.167/0001-01</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="11" t="str">
-        <f>VLOOKUP(C52,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C52,Cadastro!$A$7:$D$55,2,1)</f>
         <v>PETRÓLEO BRASILEIRO S.A. PN</v>
       </c>
       <c r="E52" t="s">
@@ -8912,39 +8906,39 @@
       <c r="H52">
         <v>51</v>
       </c>
-      <c r="I52" s="109">
+      <c r="I52" s="108">
         <f>VLOOKUP(C52,Resumo!$C$7:$H$31,5,1)</f>
         <v>19.202141666666666</v>
       </c>
-      <c r="J52" s="109">
+      <c r="J52" s="108">
         <f>I52*G52</f>
         <v>5760.6424999999999</v>
       </c>
-      <c r="K52" s="108">
+      <c r="K52" s="107">
         <f>H52/J52</f>
         <v>8.8531791375701576E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="53" spans="1:11" ht="14.65" customHeight="1">
       <c r="A53" s="58" t="str">
-        <f>VLOOKUP(C53,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C53,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
-      <c r="B53" t="str">
-        <f>VLOOKUP(C53,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B53" s="58" t="str">
+        <f>VLOOKUP(C53,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.000.167/0001-01</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="11" t="str">
-        <f>VLOOKUP(C53,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C53,Cadastro!$A$7:$D$55,2,1)</f>
         <v>PETRÓLEO BRASILEIRO S.A. PN</v>
       </c>
       <c r="E53" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="103">
+      <c r="F53" s="102">
         <v>43868</v>
       </c>
       <c r="G53">
@@ -8953,39 +8947,39 @@
       <c r="H53" s="11">
         <v>85</v>
       </c>
-      <c r="I53" s="109">
+      <c r="I53" s="108">
         <f>VLOOKUP(C53,Resumo!$C$7:$H$31,5,1)</f>
         <v>19.202141666666666</v>
       </c>
-      <c r="J53" s="109">
+      <c r="J53" s="108">
         <f>I53*G53</f>
         <v>9601.0708333333332</v>
       </c>
-      <c r="K53" s="108">
+      <c r="K53" s="107">
         <f>H53/J53</f>
         <v>8.8531791375701576E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.65" hidden="1" customHeight="1">
+    <row r="54" spans="1:11" ht="14.65" customHeight="1">
       <c r="A54" s="58" t="str">
-        <f>VLOOKUP(C54,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C54,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
-      <c r="B54" t="str">
-        <f>VLOOKUP(C54,Cadastro!$A$7:$C$55,3,1)</f>
+      <c r="B54" s="58" t="str">
+        <f>VLOOKUP(C54,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.000.167/0001-01</v>
       </c>
       <c r="C54" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="11" t="str">
-        <f>VLOOKUP(C54,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C54,Cadastro!$A$7:$D$55,2,1)</f>
         <v>PETRÓLEO BRASILEIRO S.A. PN</v>
       </c>
       <c r="E54" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="103">
+      <c r="F54" s="102">
         <v>43868</v>
       </c>
       <c r="G54">
@@ -8994,39 +8988,39 @@
       <c r="H54" s="11">
         <v>0.36</v>
       </c>
-      <c r="I54" s="109">
+      <c r="I54" s="108">
         <f>VLOOKUP(C54,Resumo!$C$7:$H$31,5,1)</f>
         <v>19.202141666666666</v>
       </c>
-      <c r="J54" s="109">
+      <c r="J54" s="108">
         <f>I54*G54</f>
         <v>9601.0708333333332</v>
       </c>
-      <c r="K54" s="108">
+      <c r="K54" s="107">
         <f>H54/J54</f>
         <v>3.7495817523826555E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1">
+    <row r="55" spans="1:11">
       <c r="A55" s="58" t="str">
-        <f>VLOOKUP(C55,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C55,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
       <c r="B55" s="58" t="str">
-        <f>VLOOKUP(C55,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C55,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.000.167/0001-01</v>
       </c>
       <c r="C55" s="58" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="11" t="str">
-        <f>VLOOKUP(C55,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C55,Cadastro!$A$7:$D$55,2,1)</f>
         <v>PETRÓLEO BRASILEIRO S.A. PN</v>
       </c>
       <c r="E55" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="103">
+      <c r="F55" s="102">
         <v>43868</v>
       </c>
       <c r="G55">
@@ -9035,39 +9029,39 @@
       <c r="H55" s="11">
         <v>178.5</v>
       </c>
-      <c r="I55" s="109">
+      <c r="I55" s="108">
         <f>VLOOKUP(C55,Resumo!$C$7:$H$31,5,1)</f>
         <v>19.202141666666666</v>
       </c>
-      <c r="J55" s="109">
+      <c r="J55" s="108">
         <f>I55*G55</f>
         <v>9601.0708333333332</v>
       </c>
-      <c r="K55" s="108">
+      <c r="K55" s="107">
         <f>H55/J55</f>
         <v>1.8591676188897333E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1">
+    <row r="56" spans="1:11">
       <c r="A56" s="58" t="str">
-        <f>VLOOKUP(C56,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C56,Cadastro!$A$7:$D$55,4,1)</f>
         <v>EMP PUBLICA</v>
       </c>
       <c r="B56" s="58" t="str">
-        <f>VLOOKUP(C56,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C56,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.000.167/0001-01</v>
       </c>
       <c r="C56" s="58" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="11" t="str">
-        <f>VLOOKUP(C56,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C56,Cadastro!$A$7:$D$55,2,1)</f>
         <v>PETRÓLEO BRASILEIRO S.A. PN</v>
       </c>
       <c r="E56" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="103">
+      <c r="F56" s="102">
         <v>43868</v>
       </c>
       <c r="G56">
@@ -9076,33 +9070,33 @@
       <c r="H56" s="11">
         <v>0.76</v>
       </c>
-      <c r="I56" s="109">
+      <c r="I56" s="108">
         <f>VLOOKUP(C56,Resumo!$C$7:$H$31,5,1)</f>
         <v>19.202141666666666</v>
       </c>
-      <c r="J56" s="109">
+      <c r="J56" s="108">
         <f>I56*G56</f>
         <v>9601.0708333333332</v>
       </c>
-      <c r="K56" s="108">
+      <c r="K56" s="107">
         <f>H56/J56</f>
         <v>7.9157836994744944E-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="58" t="str">
-        <f>VLOOKUP(C57,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C57,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
       <c r="B57" s="58" t="str">
-        <f>VLOOKUP(C57,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C57,Cadastro!$A$7:$D$55,3,1)</f>
         <v>90.400.888/0001-42</v>
       </c>
       <c r="C57" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="11" t="str">
-        <f>VLOOKUP(C57,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C57,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO SANTANDER BRON ON</v>
       </c>
       <c r="E57" s="58" t="s">
@@ -9117,39 +9111,39 @@
       <c r="H57" s="58">
         <v>10.84</v>
       </c>
-      <c r="I57" s="109">
+      <c r="I57" s="108">
         <f>VLOOKUP(C57,Resumo!$C$7:$H$31,5,1)</f>
         <v>19.3</v>
       </c>
-      <c r="J57" s="109">
+      <c r="J57" s="108">
         <f>I57*G57</f>
         <v>1930</v>
       </c>
-      <c r="K57" s="108">
+      <c r="K57" s="107">
         <f>H57/J57</f>
         <v>5.6165803108808292E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1">
+    <row r="58" spans="1:11">
       <c r="A58" s="58" t="str">
-        <f>VLOOKUP(C58,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C58,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
       <c r="B58" s="58" t="str">
-        <f>VLOOKUP(C58,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C58,Cadastro!$A$7:$D$55,3,1)</f>
         <v>90.400.888/0001-42</v>
       </c>
       <c r="C58" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D58" s="11" t="str">
-        <f>VLOOKUP(C58,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C58,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO SANTANDER BRON PN</v>
       </c>
       <c r="E58" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="103">
+      <c r="F58" s="102">
         <v>43882</v>
       </c>
       <c r="G58">
@@ -9158,39 +9152,39 @@
       <c r="H58" s="11">
         <v>190.74</v>
       </c>
-      <c r="I58" s="109">
+      <c r="I58" s="108">
         <f>VLOOKUP(C58,Resumo!$C$7:$H$31,5,1)</f>
         <v>20.100000000000001</v>
       </c>
-      <c r="J58" s="109">
+      <c r="J58" s="108">
         <f>I58*G58</f>
         <v>4020.0000000000005</v>
       </c>
-      <c r="K58" s="108">
+      <c r="K58" s="107">
         <f>H58/J58</f>
         <v>4.7447761194029846E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1">
+    <row r="59" spans="1:11">
       <c r="A59" s="58" t="str">
-        <f>VLOOKUP(C59,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C59,Cadastro!$A$7:$D$55,4,1)</f>
         <v>BANCO</v>
       </c>
       <c r="B59" s="58" t="str">
-        <f>VLOOKUP(C59,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C59,Cadastro!$A$7:$D$55,3,1)</f>
         <v>90.400.888/0001-42</v>
       </c>
       <c r="C59" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="11" t="str">
-        <f>VLOOKUP(C59,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C59,Cadastro!$A$7:$D$55,2,1)</f>
         <v>BANCO SANTANDER BRON PN</v>
       </c>
       <c r="E59" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="103">
+      <c r="F59" s="102">
         <v>43882</v>
       </c>
       <c r="G59">
@@ -9199,33 +9193,33 @@
       <c r="H59" s="11">
         <v>24.12</v>
       </c>
-      <c r="I59" s="109">
+      <c r="I59" s="108">
         <f>VLOOKUP(C59,Resumo!$C$7:$H$31,5,1)</f>
         <v>20.100000000000001</v>
       </c>
-      <c r="J59" s="109">
+      <c r="J59" s="108">
         <f>I59*G59</f>
         <v>4020.0000000000005</v>
       </c>
-      <c r="K59" s="108">
+      <c r="K59" s="107">
         <f>H59/J59</f>
         <v>5.9999999999999993E-3</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="58" t="str">
-        <f>VLOOKUP(C60,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C60,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B60" s="58" t="str">
-        <f>VLOOKUP(C60,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C60,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C60" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="11" t="str">
-        <f>VLOOKUP(C60,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C60,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E60" s="11" t="s">
@@ -9240,33 +9234,33 @@
       <c r="H60" s="58">
         <v>0.6</v>
       </c>
-      <c r="I60" s="109">
+      <c r="I60" s="108">
         <f>VLOOKUP(C60,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J60" s="109">
+      <c r="J60" s="108">
         <f>I60*G60</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="K60" s="108">
+      <c r="K60" s="107">
         <f>H60/J60</f>
         <v>4.5030520686242899E-3</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="58" t="str">
-        <f>VLOOKUP(C61,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C61,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B61" s="58" t="str">
-        <f>VLOOKUP(C61,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C61,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C61" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="11" t="str">
-        <f>VLOOKUP(C61,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C61,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E61" s="11" t="s">
@@ -9281,33 +9275,33 @@
       <c r="H61" s="58">
         <v>0.6</v>
       </c>
-      <c r="I61" s="109">
+      <c r="I61" s="108">
         <f>VLOOKUP(C61,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J61" s="109">
+      <c r="J61" s="108">
         <f>I61*G61</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="K61" s="108">
+      <c r="K61" s="107">
         <f>H61/J61</f>
         <v>4.5030520686242899E-3</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="58" t="str">
-        <f>VLOOKUP(C62,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C62,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B62" s="58" t="str">
-        <f>VLOOKUP(C62,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C62,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C62" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="11" t="str">
-        <f>VLOOKUP(C62,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C62,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E62" s="58" t="s">
@@ -9322,33 +9316,33 @@
       <c r="H62" s="58">
         <v>0.6</v>
       </c>
-      <c r="I62" s="109">
+      <c r="I62" s="108">
         <f>VLOOKUP(C62,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J62" s="109">
+      <c r="J62" s="108">
         <f>I62*G62</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="K62" s="108">
+      <c r="K62" s="107">
         <f>H62/J62</f>
         <v>4.5030520686242899E-3</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="58" t="str">
-        <f>VLOOKUP(C63,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C63,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B63" s="58" t="str">
-        <f>VLOOKUP(C63,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C63,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C63" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="11" t="str">
-        <f>VLOOKUP(C63,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C63,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E63" s="58" t="s">
@@ -9363,33 +9357,33 @@
       <c r="H63" s="58">
         <v>0.49</v>
       </c>
-      <c r="I63" s="109">
+      <c r="I63" s="108">
         <f>VLOOKUP(C63,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J63" s="109">
+      <c r="J63" s="108">
         <f>I63*G63</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="K63" s="108">
+      <c r="K63" s="107">
         <f>H63/J63</f>
         <v>3.6774925227098364E-3</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="58" t="str">
-        <f>VLOOKUP(C64,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C64,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B64" s="58" t="str">
-        <f>VLOOKUP(C64,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C64,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C64" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="11" t="str">
-        <f>VLOOKUP(C64,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C64,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E64" s="58" t="s">
@@ -9404,33 +9398,33 @@
       <c r="H64" s="58">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I64" s="109">
+      <c r="I64" s="108">
         <f>VLOOKUP(C64,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J64" s="109">
+      <c r="J64" s="108">
         <f>I64*G64</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="K64" s="108">
+      <c r="K64" s="107">
         <f>H64/J64</f>
         <v>4.2028485973826706E-3</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="58" t="str">
-        <f>VLOOKUP(C65,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C65,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B65" s="58" t="str">
-        <f>VLOOKUP(C65,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C65,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C65" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="11" t="str">
-        <f>VLOOKUP(C65,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C65,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E65" s="58" t="s">
@@ -9445,33 +9439,33 @@
       <c r="H65" s="58">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I65" s="109">
+      <c r="I65" s="108">
         <f>VLOOKUP(C65,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J65" s="109">
+      <c r="J65" s="108">
         <f>I65*G65</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="K65" s="108">
+      <c r="K65" s="107">
         <f>H65/J65</f>
         <v>4.1277977295722662E-3</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="58" t="str">
-        <f>VLOOKUP(C66,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C66,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B66" s="58" t="str">
-        <f>VLOOKUP(C66,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C66,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C66" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="11" t="str">
-        <f>VLOOKUP(C66,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C66,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E66" s="58" t="s">
@@ -9486,33 +9480,33 @@
       <c r="H66" s="58">
         <v>0.65</v>
       </c>
-      <c r="I66" s="109">
+      <c r="I66" s="108">
         <f>VLOOKUP(C66,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J66" s="109">
+      <c r="J66" s="108">
         <f>I66*G66</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="K66" s="108">
+      <c r="K66" s="107">
         <f>H66/J66</f>
         <v>4.8783064076763144E-3</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="58" t="str">
-        <f>VLOOKUP(C67,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C67,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B67" s="58" t="str">
-        <f>VLOOKUP(C67,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C67,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C67" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="11" t="str">
-        <f>VLOOKUP(C67,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C67,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E67" s="58" t="s">
@@ -9527,33 +9521,33 @@
       <c r="H67" s="58">
         <v>0.92</v>
       </c>
-      <c r="I67" s="109">
+      <c r="I67" s="108">
         <f>VLOOKUP(C67,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J67" s="109">
+      <c r="J67" s="108">
         <f>I67*G67</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="K67" s="108">
+      <c r="K67" s="107">
         <f>H67/J67</f>
         <v>6.9046798385572448E-3</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="58" t="str">
-        <f>VLOOKUP(C68,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C68,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B68" s="58" t="str">
-        <f>VLOOKUP(C68,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C68,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C68" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="11" t="str">
-        <f>VLOOKUP(C68,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C68,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E68" s="58" t="s">
@@ -9568,33 +9562,33 @@
       <c r="H68" s="58">
         <v>0.92</v>
       </c>
-      <c r="I68" s="109">
+      <c r="I68" s="108">
         <f>VLOOKUP(C68,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J68" s="109">
+      <c r="J68" s="108">
         <f>I68*G68</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="K68" s="108">
+      <c r="K68" s="107">
         <f>H68/J68</f>
         <v>6.9046798385572448E-3</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="58" t="str">
-        <f>VLOOKUP(C69,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C69,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B69" s="58" t="str">
-        <f>VLOOKUP(C69,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C69,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C69" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="11" t="str">
-        <f>VLOOKUP(C69,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C69,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E69" s="58" t="s">
@@ -9609,39 +9603,39 @@
       <c r="H69" s="58">
         <v>0.63</v>
       </c>
-      <c r="I69" s="109">
+      <c r="I69" s="108">
         <f>VLOOKUP(C69,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J69" s="109">
+      <c r="J69" s="108">
         <f>I69*G69</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="K69" s="108">
+      <c r="K69" s="107">
         <f>H69/J69</f>
         <v>4.7282046720555047E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1">
+    <row r="70" spans="1:11">
       <c r="A70" s="58" t="str">
-        <f>VLOOKUP(C70,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C70,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B70" s="58" t="str">
-        <f>VLOOKUP(C70,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C70,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C70" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="11" t="str">
-        <f>VLOOKUP(C70,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C70,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E70" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="103">
+      <c r="F70" s="102">
         <v>43845</v>
       </c>
       <c r="G70">
@@ -9650,39 +9644,39 @@
       <c r="H70" s="11">
         <v>20.79</v>
       </c>
-      <c r="I70" s="109">
+      <c r="I70" s="108">
         <f>VLOOKUP(C70,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J70" s="109">
+      <c r="J70" s="108">
         <f>I70*G70</f>
         <v>3597.56</v>
       </c>
-      <c r="K70" s="108">
+      <c r="K70" s="107">
         <f>H70/J70</f>
         <v>5.7789168214011722E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1">
+    <row r="71" spans="1:11">
       <c r="A71" s="58" t="str">
-        <f>VLOOKUP(C71,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C71,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B71" s="58" t="str">
-        <f>VLOOKUP(C71,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C71,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C71" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="11" t="str">
-        <f>VLOOKUP(C71,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C71,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E71" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F71" s="103">
+      <c r="F71" s="102">
         <v>43903</v>
       </c>
       <c r="G71">
@@ -9691,39 +9685,39 @@
       <c r="H71" s="11">
         <v>17.010000000000002</v>
       </c>
-      <c r="I71" s="109">
+      <c r="I71" s="108">
         <f>VLOOKUP(C71,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J71" s="109">
+      <c r="J71" s="108">
         <f>I71*G71</f>
         <v>3597.56</v>
       </c>
-      <c r="K71" s="108">
+      <c r="K71" s="107">
         <f>H71/J71</f>
         <v>4.7282046720555047E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1">
+    <row r="72" spans="1:11">
       <c r="A72" s="58" t="str">
-        <f>VLOOKUP(C72,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C72,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B72" s="58" t="str">
-        <f>VLOOKUP(C72,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C72,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C72" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="11" t="str">
-        <f>VLOOKUP(C72,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C72,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E72" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F72" s="103">
+      <c r="F72" s="102">
         <v>43875</v>
       </c>
       <c r="G72">
@@ -9732,39 +9726,39 @@
       <c r="H72" s="11">
         <v>17.010000000000002</v>
       </c>
-      <c r="I72" s="109">
+      <c r="I72" s="108">
         <f>VLOOKUP(C72,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J72" s="109">
+      <c r="J72" s="108">
         <f>I72*G72</f>
         <v>3597.56</v>
       </c>
-      <c r="K72" s="108">
+      <c r="K72" s="107">
         <f>H72/J72</f>
         <v>4.7282046720555047E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:11">
       <c r="A73" s="58" t="str">
-        <f>VLOOKUP(C73,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C73,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B73" s="58" t="str">
-        <f>VLOOKUP(C73,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C73,Cadastro!$A$7:$D$55,3,1)</f>
         <v>17.554.274/0001-25</v>
       </c>
       <c r="C73" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="11" t="str">
-        <f>VLOOKUP(C73,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C73,Cadastro!$A$7:$D$55,2,1)</f>
         <v>VINCI SHOPPING CENTER FII</v>
       </c>
       <c r="E73" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F73" s="103">
+      <c r="F73" s="102">
         <v>43935</v>
       </c>
       <c r="G73">
@@ -9773,39 +9767,39 @@
       <c r="H73" s="11">
         <v>6.48</v>
       </c>
-      <c r="I73" s="109">
+      <c r="I73" s="108">
         <f>VLOOKUP(C73,Resumo!$C$7:$H$31,5,1)</f>
         <v>133.24296296296296</v>
       </c>
-      <c r="J73" s="109">
+      <c r="J73" s="108">
         <f>I73*G73</f>
         <v>3597.56</v>
       </c>
-      <c r="K73" s="108">
+      <c r="K73" s="107">
         <f>H73/J73</f>
         <v>1.801220827449716E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1">
+    <row r="74" spans="1:11">
       <c r="A74" s="58" t="str">
-        <f>VLOOKUP(C74,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C74,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>RISCO</v>
       </c>
       <c r="B74" s="58" t="str">
-        <f>VLOOKUP(C74,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C74,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.113.309/0001-47</v>
       </c>
       <c r="C74" s="58" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="11" t="str">
-        <f>VLOOKUP(C74,Cadastro!$A$7:$C$55,2,1)</f>
-        <v>SOLUÇÕES E SERV. SEGUR.</v>
+        <f>VLOOKUP(C74,Cadastro!$A$7:$D$55,2,1)</f>
+        <v>SOLUÇÕES E SERV. SEGURANÇA</v>
       </c>
       <c r="E74" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F74" s="103">
+      <c r="F74" s="102">
         <v>43833</v>
       </c>
       <c r="G74">
@@ -9814,39 +9808,39 @@
       <c r="H74" s="11">
         <v>59.5</v>
       </c>
-      <c r="I74" s="109">
+      <c r="I74" s="108">
         <f>VLOOKUP(C74,Resumo!$C$7:$H$31,5,1)</f>
         <v>13.16</v>
       </c>
-      <c r="J74" s="109">
+      <c r="J74" s="108">
         <f>I74*G74</f>
         <v>2632</v>
       </c>
-      <c r="K74" s="108">
+      <c r="K74" s="107">
         <f>H74/J74</f>
         <v>2.2606382978723406E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1">
+    <row r="75" spans="1:11">
       <c r="A75" s="58" t="str">
-        <f>VLOOKUP(C75,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C75,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>RISCO</v>
       </c>
       <c r="B75" s="58" t="str">
-        <f>VLOOKUP(C75,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C75,Cadastro!$A$7:$D$55,3,1)</f>
         <v>33.113.309/0001-47</v>
       </c>
       <c r="C75" s="58" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="11" t="str">
-        <f>VLOOKUP(C75,Cadastro!$A$7:$C$55,2,1)</f>
-        <v>SOLUÇÕES E SERV. SEGUR.</v>
+        <f>VLOOKUP(C75,Cadastro!$A$7:$D$55,2,1)</f>
+        <v>SOLUÇÕES E SERV. SEGURANÇA</v>
       </c>
       <c r="E75" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F75" s="103">
+      <c r="F75" s="102">
         <v>43924</v>
       </c>
       <c r="G75">
@@ -9855,33 +9849,33 @@
       <c r="H75" s="11">
         <v>59.5</v>
       </c>
-      <c r="I75" s="109">
+      <c r="I75" s="108">
         <f>VLOOKUP(C75,Resumo!$C$7:$H$31,5,1)</f>
         <v>13.16</v>
       </c>
-      <c r="J75" s="109">
+      <c r="J75" s="108">
         <f>I75*G75</f>
         <v>2632</v>
       </c>
-      <c r="K75" s="108">
+      <c r="K75" s="107">
         <f>H75/J75</f>
         <v>2.2606382978723406E-2</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="58" t="str">
-        <f>VLOOKUP(C76,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C76,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B76" s="58" t="str">
-        <f>VLOOKUP(C76,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C76,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C76" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="11" t="str">
-        <f>VLOOKUP(C76,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C76,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E76" s="11" t="s">
@@ -9896,33 +9890,33 @@
       <c r="H76" s="58">
         <v>0.67</v>
       </c>
-      <c r="I76" s="109">
+      <c r="I76" s="108">
         <f>VLOOKUP(C76,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J76" s="109">
+      <c r="J76" s="108">
         <f>I76*G76</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="K76" s="108">
+      <c r="K76" s="107">
         <f>H76/J76</f>
         <v>5.1406902453779539E-3</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="58" t="str">
-        <f>VLOOKUP(C77,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C77,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B77" s="58" t="str">
-        <f>VLOOKUP(C77,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C77,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C77" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="11" t="str">
-        <f>VLOOKUP(C77,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C77,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E77" s="11" t="s">
@@ -9937,33 +9931,33 @@
       <c r="H77" s="58">
         <v>0.67</v>
       </c>
-      <c r="I77" s="109">
+      <c r="I77" s="108">
         <f>VLOOKUP(C77,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J77" s="109">
+      <c r="J77" s="108">
         <f>I77*G77</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="K77" s="108">
+      <c r="K77" s="107">
         <f>H77/J77</f>
         <v>5.1406902453779539E-3</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="58" t="str">
-        <f>VLOOKUP(C78,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C78,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B78" s="58" t="str">
-        <f>VLOOKUP(C78,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C78,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C78" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="11" t="str">
-        <f>VLOOKUP(C78,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C78,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E78" s="58" t="s">
@@ -9978,33 +9972,33 @@
       <c r="H78" s="58">
         <v>0.68</v>
       </c>
-      <c r="I78" s="109">
+      <c r="I78" s="108">
         <f>VLOOKUP(C78,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J78" s="109">
+      <c r="J78" s="108">
         <f>I78*G78</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="K78" s="108">
+      <c r="K78" s="107">
         <f>H78/J78</f>
         <v>5.2174169654582219E-3</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="58" t="str">
-        <f>VLOOKUP(C79,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C79,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B79" s="58" t="str">
-        <f>VLOOKUP(C79,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C79,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C79" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="11" t="str">
-        <f>VLOOKUP(C79,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C79,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E79" s="58" t="s">
@@ -10019,33 +10013,33 @@
       <c r="H79" s="58">
         <v>0.68</v>
       </c>
-      <c r="I79" s="109">
+      <c r="I79" s="108">
         <f>VLOOKUP(C79,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J79" s="109">
+      <c r="J79" s="108">
         <f>I79*G79</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="K79" s="108">
+      <c r="K79" s="107">
         <f>H79/J79</f>
         <v>5.2174169654582219E-3</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="58" t="str">
-        <f>VLOOKUP(C80,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C80,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B80" s="58" t="str">
-        <f>VLOOKUP(C80,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C80,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C80" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="11" t="str">
-        <f>VLOOKUP(C80,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C80,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E80" s="58" t="s">
@@ -10060,33 +10054,33 @@
       <c r="H80" s="58">
         <v>0.61</v>
       </c>
-      <c r="I80" s="109">
+      <c r="I80" s="108">
         <f>VLOOKUP(C80,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J80" s="109">
+      <c r="J80" s="108">
         <f>I80*G80</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="K80" s="108">
+      <c r="K80" s="107">
         <f>H80/J80</f>
         <v>4.6803299248963457E-3</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="58" t="str">
-        <f>VLOOKUP(C81,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C81,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B81" s="58" t="str">
-        <f>VLOOKUP(C81,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C81,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C81" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="11" t="str">
-        <f>VLOOKUP(C81,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C81,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E81" s="58" t="s">
@@ -10101,33 +10095,33 @@
       <c r="H81" s="58">
         <v>0.61</v>
       </c>
-      <c r="I81" s="109">
+      <c r="I81" s="108">
         <f>VLOOKUP(C81,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J81" s="109">
+      <c r="J81" s="108">
         <f>I81*G81</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="K81" s="108">
+      <c r="K81" s="107">
         <f>H81/J81</f>
         <v>4.6803299248963457E-3</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="58" t="str">
-        <f>VLOOKUP(C82,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C82,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B82" s="58" t="str">
-        <f>VLOOKUP(C82,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C82,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C82" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="11" t="str">
-        <f>VLOOKUP(C82,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C82,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E82" s="58" t="s">
@@ -10142,33 +10136,33 @@
       <c r="H82" s="58">
         <v>0.61</v>
       </c>
-      <c r="I82" s="109">
+      <c r="I82" s="108">
         <f>VLOOKUP(C82,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J82" s="109">
+      <c r="J82" s="108">
         <f>I82*G82</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="K82" s="108">
+      <c r="K82" s="107">
         <f>H82/J82</f>
         <v>4.6803299248963457E-3</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="58" t="str">
-        <f>VLOOKUP(C83,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C83,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B83" s="58" t="str">
-        <f>VLOOKUP(C83,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C83,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C83" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="11" t="str">
-        <f>VLOOKUP(C83,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C83,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E83" s="58" t="s">
@@ -10183,33 +10177,33 @@
       <c r="H83" s="58">
         <v>0.61</v>
       </c>
-      <c r="I83" s="109">
+      <c r="I83" s="108">
         <f>VLOOKUP(C83,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J83" s="109">
+      <c r="J83" s="108">
         <f>I83*G83</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="K83" s="108">
+      <c r="K83" s="107">
         <f>H83/J83</f>
         <v>4.6803299248963457E-3</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="58" t="str">
-        <f>VLOOKUP(C84,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C84,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B84" s="58" t="str">
-        <f>VLOOKUP(C84,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C84,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C84" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D84" s="11" t="str">
-        <f>VLOOKUP(C84,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C84,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E84" s="58" t="s">
@@ -10224,33 +10218,33 @@
       <c r="H84" s="58">
         <v>0.61</v>
       </c>
-      <c r="I84" s="109">
+      <c r="I84" s="108">
         <f>VLOOKUP(C84,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J84" s="109">
+      <c r="J84" s="108">
         <f>I84*G84</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="K84" s="108">
+      <c r="K84" s="107">
         <f>H84/J84</f>
         <v>4.6803299248963457E-3</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="58" t="str">
-        <f>VLOOKUP(C85,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C85,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B85" s="58" t="str">
-        <f>VLOOKUP(C85,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C85,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C85" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="11" t="str">
-        <f>VLOOKUP(C85,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C85,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E85" s="58" t="s">
@@ -10265,39 +10259,39 @@
       <c r="H85" s="58">
         <v>0.64</v>
       </c>
-      <c r="I85" s="109">
+      <c r="I85" s="108">
         <f>VLOOKUP(C85,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J85" s="109">
+      <c r="J85" s="108">
         <f>I85*G85</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="K85" s="108">
+      <c r="K85" s="107">
         <f>H85/J85</f>
         <v>4.9105100851371498E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1">
+    <row r="86" spans="1:11">
       <c r="A86" s="58" t="str">
-        <f>VLOOKUP(C86,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C86,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B86" s="58" t="str">
-        <f>VLOOKUP(C86,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C86,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C86" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D86" s="11" t="str">
-        <f>VLOOKUP(C86,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C86,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E86" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F86" s="103">
+      <c r="F86" s="102">
         <v>43845</v>
       </c>
       <c r="G86">
@@ -10306,39 +10300,39 @@
       <c r="H86" s="11">
         <v>16.64</v>
       </c>
-      <c r="I86" s="109">
+      <c r="I86" s="108">
         <f>VLOOKUP(C86,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J86" s="109">
+      <c r="J86" s="108">
         <f>I86*G86</f>
         <v>3388.6499999999996</v>
       </c>
-      <c r="K86" s="108">
+      <c r="K86" s="107">
         <f>H86/J86</f>
         <v>4.9105100851371498E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1">
+    <row r="87" spans="1:11">
       <c r="A87" s="58" t="str">
-        <f>VLOOKUP(C87,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C87,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B87" s="58" t="str">
-        <f>VLOOKUP(C87,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C87,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C87" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="11" t="str">
-        <f>VLOOKUP(C87,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C87,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E87" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F87" s="103">
+      <c r="F87" s="102">
         <v>43903</v>
       </c>
       <c r="G87">
@@ -10347,39 +10341,39 @@
       <c r="H87" s="11">
         <v>16.64</v>
       </c>
-      <c r="I87" s="109">
+      <c r="I87" s="108">
         <f>VLOOKUP(C87,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J87" s="109">
+      <c r="J87" s="108">
         <f>I87*G87</f>
         <v>3388.6499999999996</v>
       </c>
-      <c r="K87" s="108">
+      <c r="K87" s="107">
         <f>H87/J87</f>
         <v>4.9105100851371498E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1">
+    <row r="88" spans="1:11">
       <c r="A88" s="58" t="str">
-        <f>VLOOKUP(C88,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C88,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B88" s="58" t="str">
-        <f>VLOOKUP(C88,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C88,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C88" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="11" t="str">
-        <f>VLOOKUP(C88,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C88,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E88" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F88" s="103">
+      <c r="F88" s="102">
         <v>43875</v>
       </c>
       <c r="G88">
@@ -10388,39 +10382,39 @@
       <c r="H88" s="11">
         <v>16.64</v>
       </c>
-      <c r="I88" s="109">
+      <c r="I88" s="108">
         <f>VLOOKUP(C88,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J88" s="109">
+      <c r="J88" s="108">
         <f>I88*G88</f>
         <v>3388.6499999999996</v>
       </c>
-      <c r="K88" s="108">
+      <c r="K88" s="107">
         <f>H88/J88</f>
         <v>4.9105100851371498E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1">
+    <row r="89" spans="1:11">
       <c r="A89" s="58" t="str">
-        <f>VLOOKUP(C89,Cadastro!$A$7:$D$39,4,1)</f>
-        <v>ENERGIA</v>
+        <f>VLOOKUP(C89,Cadastro!$A$7:$D$55,4,1)</f>
+        <v>FII</v>
       </c>
       <c r="B89" s="58" t="str">
-        <f>VLOOKUP(C89,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C89,Cadastro!$A$7:$D$55,3,1)</f>
         <v>26.502.794/0001-85</v>
       </c>
       <c r="C89" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="11" t="str">
-        <f>VLOOKUP(C89,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C89,Cadastro!$A$7:$D$55,2,1)</f>
         <v>XP LOG FDO INV IMOB – FII</v>
       </c>
       <c r="E89" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F89" s="103">
+      <c r="F89" s="102">
         <v>43935</v>
       </c>
       <c r="G89">
@@ -10429,42 +10423,36 @@
       <c r="H89" s="11">
         <v>15.08</v>
       </c>
-      <c r="I89" s="109">
+      <c r="I89" s="108">
         <f>VLOOKUP(C89,Resumo!$C$7:$H$31,5,1)</f>
         <v>130.3326923076923</v>
       </c>
-      <c r="J89" s="109">
+      <c r="J89" s="108">
         <f>I89*G89</f>
         <v>3388.6499999999996</v>
       </c>
-      <c r="K89" s="108">
+      <c r="K89" s="107">
         <f>H89/J89</f>
         <v>4.4501497646555416E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1">
+    <row r="90" spans="1:11">
       <c r="A90" s="58" t="e">
-        <f>VLOOKUP(C90,Cadastro!$A$7:$D$39,4,1)</f>
+        <f>VLOOKUP(C90,Cadastro!$A$7:$D$55,4,1)</f>
         <v>#N/A</v>
       </c>
       <c r="B90" s="58" t="e">
-        <f>VLOOKUP(C90,Cadastro!$A$7:$C$55,3,1)</f>
+        <f>VLOOKUP(C90,Cadastro!$A$7:$D$55,3,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="C90" s="107"/>
+      <c r="C90" s="106"/>
       <c r="D90" s="11" t="e">
-        <f>VLOOKUP(C90,Cadastro!$A$7:$C$55,2,1)</f>
+        <f>VLOOKUP(C90,Cadastro!$A$7:$D$55,2,1)</f>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:K90">
-    <filterColumn colId="5">
-      <filters>
-        <dateGroupItem year="2019" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A6:K90"/>
   <sortState ref="A7:K89">
     <sortCondition ref="C7:C89"/>
   </sortState>
@@ -10481,8 +10469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10490,7 +10478,9 @@
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" customWidth="1"/>
@@ -10520,7 +10510,7 @@
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="110" t="s">
         <v>65</v>
       </c>
     </row>
@@ -10535,7 +10525,7 @@
         <v>78</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E7" s="58" t="str">
         <f t="shared" ref="E7:E44" si="0">CONCATENATE(A7,$H$37)</f>
@@ -10553,7 +10543,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -10574,7 +10564,7 @@
         <v>84</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -10585,17 +10575,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A10" t="s">
+      <c r="A10" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="58" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -10603,16 +10593,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A11" t="s">
+      <c r="A11" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="57" t="s">
         <v>47</v>
       </c>
       <c r="E11" t="str">
@@ -10621,17 +10611,17 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A12" t="s">
+      <c r="A12" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="58" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -10649,7 +10639,7 @@
         <v>94</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -10660,17 +10650,17 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="57" t="s">
-        <v>279</v>
+      <c r="D14" s="58" t="s">
+        <v>278</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -10681,17 +10671,17 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A15" t="s">
+      <c r="A15" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>279</v>
+      <c r="D15" s="57" t="s">
+        <v>278</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -10699,17 +10689,17 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="57" t="s">
-        <v>279</v>
+      <c r="D16" s="58" t="s">
+        <v>278</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -10717,17 +10707,17 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="58" t="s">
-        <v>280</v>
+      <c r="D17" s="57" t="s">
+        <v>279</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -10735,17 +10725,17 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="58" customFormat="1" ht="14.85" customHeight="1">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="58" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E18" s="58" t="str">
         <f t="shared" si="0"/>
@@ -10763,7 +10753,7 @@
         <v>106</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -10771,17 +10761,17 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="57" t="s">
-        <v>279</v>
+      <c r="D20" s="58" t="s">
+        <v>278</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -10789,17 +10779,17 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="57" t="s">
         <v>110</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -10807,17 +10797,17 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="57" t="s">
-        <v>281</v>
+      <c r="D22" s="58" t="s">
+        <v>280</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -10838,47 +10828,47 @@
         <v>115</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>ENAT3%7C</v>
       </c>
-      <c r="H23" s="60" t="s">
+      <c r="H23" s="59" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="57" t="s">
-        <v>280</v>
+      <c r="D24" s="58" t="s">
+        <v>279</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>EQTL3%7C</v>
       </c>
-      <c r="H24" s="60"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A25" t="s">
+      <c r="A25" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="107" t="s">
-        <v>279</v>
+      <c r="D25" s="57" t="s">
+        <v>278</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -10886,16 +10876,16 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A26" t="s">
+      <c r="A26" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="58" t="s">
         <v>47</v>
       </c>
       <c r="E26" t="str">
@@ -10904,13 +10894,13 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="57" t="s">
         <v>126</v>
       </c>
       <c r="D27" s="57" t="s">
@@ -10925,17 +10915,17 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="57" t="s">
-        <v>279</v>
+      <c r="D28" s="58" t="s">
+        <v>278</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -10956,7 +10946,7 @@
         <v>131</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -10967,17 +10957,17 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="57" t="s">
-        <v>278</v>
+      <c r="D30" s="58" t="s">
+        <v>277</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -10995,7 +10985,7 @@
         <v>135</v>
       </c>
       <c r="D31" s="57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -11003,17 +10993,17 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A32" t="s">
+      <c r="A32" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="57" t="s">
-        <v>278</v>
+      <c r="D32" s="58" t="s">
+        <v>277</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -11031,7 +11021,7 @@
         <v>140</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -11039,17 +11029,17 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="57" t="s">
-        <v>279</v>
+      <c r="D34" s="58" t="s">
+        <v>278</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -11070,28 +11060,28 @@
         <v>145</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>PETR4%7C</v>
       </c>
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="59" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="57" t="s">
-        <v>279</v>
+      <c r="D36" s="58" t="s">
+        <v>278</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -11112,7 +11102,7 @@
         <v>150</v>
       </c>
       <c r="D37" s="57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -11123,17 +11113,17 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="57" t="s">
-        <v>278</v>
+      <c r="D38" s="58" t="s">
+        <v>277</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -11141,38 +11131,38 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="57" t="s">
         <v>154</v>
       </c>
       <c r="D39" s="57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
         <v>TRPL4%7C</v>
       </c>
-      <c r="H39" s="60" t="s">
+      <c r="H39" s="59" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="57" t="s">
+      <c r="B40" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="57" t="s">
-        <v>281</v>
+      <c r="D40" s="58" t="s">
+        <v>280</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -11180,13 +11170,13 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="57" t="s">
         <v>159</v>
       </c>
       <c r="D41" s="57" t="s">
@@ -11198,17 +11188,17 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A42" t="s">
+      <c r="A42" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="C42" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>279</v>
+      <c r="D42" s="58" t="s">
+        <v>278</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
@@ -11220,13 +11210,13 @@
         <v>36</v>
       </c>
       <c r="B43" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="57" t="s">
-        <v>163</v>
-      </c>
       <c r="D43" s="57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -11234,20 +11224,20 @@
       </c>
       <c r="F43" s="18"/>
       <c r="G43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.85" customHeight="1">
+      <c r="A44" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="58" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="14.85" customHeight="1">
-      <c r="A44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="11" t="s">
+      <c r="C44" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="58" t="s">
         <v>47</v>
       </c>
       <c r="E44" t="str">
@@ -11256,7 +11246,12 @@
       </c>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="14.85" customHeight="1"/>
+    <row r="45" spans="1:8" ht="14.85" customHeight="1">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+    </row>
     <row r="46" spans="1:8" ht="14.85" customHeight="1"/>
     <row r="47" spans="1:8" ht="14.85" customHeight="1"/>
     <row r="48" spans="1:8" ht="14.85" customHeight="1"/>
@@ -11306,18 +11301,18 @@
   <sheetData>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
       <c r="F2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G2" s="19">
         <f ca="1">NOW()</f>
-        <v>43930.507499884261</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="62">
+        <v>43930.517007175928</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="61">
         <f ca="1">NOW()</f>
-        <v>43930.507499884261</v>
+        <v>43930.517007175928</v>
       </c>
       <c r="M2" t="s">
         <v>43</v>
@@ -11340,10 +11335,10 @@
         <v>25</v>
       </c>
       <c r="P3" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" t="s">
         <v>169</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1">
@@ -11358,7 +11353,7 @@
         <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q4" t="s">
         <v>42</v>
@@ -11366,10 +11361,10 @@
     </row>
     <row r="5" spans="1:23" ht="12.75" customHeight="1">
       <c r="F5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="59" t="s">
         <v>172</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>173</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -11383,7 +11378,7 @@
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1">
       <c r="F6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G6" t="str">
         <f ca="1">CONCATENATE("cotacao_",TEXT(G2,"AAAAMMDD"),"-",TEXT(G2,"HH"),"00.xml")</f>
@@ -11395,7 +11390,7 @@
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="14.65" customHeight="1">
@@ -11406,7 +11401,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -11467,7 +11462,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="19">
         <v>43257</v>
@@ -11484,7 +11479,7 @@
       </c>
       <c r="G12" s="33">
         <f ca="1">G2</f>
-        <v>43930.507499884261</v>
+        <v>43930.517007175928</v>
       </c>
       <c r="H12">
         <v>27</v>
@@ -11519,7 +11514,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" s="19">
         <v>43412</v>
@@ -11535,9 +11530,9 @@
         <f t="shared" si="0"/>
         <v>6600</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="62">
         <f ca="1">G2</f>
-        <v>43930.507499884261</v>
+        <v>43930.517007175928</v>
       </c>
       <c r="H13">
         <v>9.8000000000000007</v>
@@ -11561,7 +11556,7 @@
         <f t="shared" si="4"/>
         <v>780</v>
       </c>
-      <c r="N13" s="64">
+      <c r="N13" s="63">
         <f t="shared" si="5"/>
         <v>0.11818181818181818</v>
       </c>
@@ -11588,7 +11583,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="19">
         <v>43425</v>
@@ -11605,9 +11600,9 @@
         <f t="shared" si="0"/>
         <v>4140</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="62">
         <f ca="1">G2</f>
-        <v>43930.507499884261</v>
+        <v>43930.517007175928</v>
       </c>
       <c r="H14">
         <v>1.8</v>
@@ -11631,7 +11626,7 @@
         <f t="shared" si="4"/>
         <v>1860</v>
       </c>
-      <c r="N14" s="64">
+      <c r="N14" s="63">
         <f t="shared" si="5"/>
         <v>0.44927536231884058</v>
       </c>
@@ -11658,7 +11653,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="19">
         <v>43453</v>
@@ -11675,7 +11670,7 @@
       </c>
       <c r="G15" s="33">
         <f ca="1">G2</f>
-        <v>43930.507499884261</v>
+        <v>43930.517007175928</v>
       </c>
       <c r="H15" s="11">
         <v>16.649999999999999</v>
@@ -11699,7 +11694,7 @@
         <f t="shared" si="4"/>
         <v>644</v>
       </c>
-      <c r="N15" s="64">
+      <c r="N15" s="63">
         <f t="shared" si="5"/>
         <v>0.20405576679340937</v>
       </c>
@@ -11708,8 +11703,8 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>165</v>
+      <c r="B16" s="64" t="s">
+        <v>164</v>
       </c>
       <c r="C16" s="19">
         <v>43493</v>
@@ -11726,7 +11721,7 @@
       </c>
       <c r="G16" s="33">
         <f ca="1">G2</f>
-        <v>43930.507499884261</v>
+        <v>43930.517007175928</v>
       </c>
       <c r="H16" s="11">
         <v>102</v>
@@ -11750,17 +11745,17 @@
         <f t="shared" si="4"/>
         <v>1.5999999999999943</v>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="63">
         <f t="shared" si="5"/>
         <v>1.5779092702169567E-2</v>
       </c>
-      <c r="Q16" s="66"/>
+      <c r="Q16" s="65"/>
     </row>
     <row r="17" spans="1:24" ht="14.65" customHeight="1">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="66" t="s">
         <v>158</v>
       </c>
       <c r="C17" s="19">
@@ -11778,7 +11773,7 @@
       </c>
       <c r="G17" s="33">
         <f ca="1">G2</f>
-        <v>43930.507499884261</v>
+        <v>43930.517007175928</v>
       </c>
       <c r="H17" s="11">
         <v>108.5</v>
@@ -11802,18 +11797,18 @@
         <f t="shared" si="4"/>
         <v>2.3499999999999943</v>
       </c>
-      <c r="N17" s="64">
+      <c r="N17" s="63">
         <f t="shared" si="5"/>
         <v>2.2243256034074722E-2</v>
       </c>
-      <c r="Q17" s="66"/>
+      <c r="Q17" s="65"/>
     </row>
     <row r="18" spans="1:24" ht="14.65" customHeight="1">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="19">
         <v>43497</v>
@@ -11830,7 +11825,7 @@
       </c>
       <c r="G18" s="33">
         <f ca="1">G2</f>
-        <v>43930.507499884261</v>
+        <v>43930.517007175928</v>
       </c>
       <c r="H18" s="11">
         <v>18.75</v>
@@ -11854,11 +11849,11 @@
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="N18" s="64">
+      <c r="N18" s="63">
         <f t="shared" si="5"/>
         <v>0.10416666666666667</v>
       </c>
-      <c r="Q18" s="66"/>
+      <c r="Q18" s="65"/>
     </row>
     <row r="19" spans="1:24" ht="14.65" customHeight="1">
       <c r="A19" t="s">
@@ -11882,7 +11877,7 @@
       </c>
       <c r="G19" s="33">
         <f ca="1">G2</f>
-        <v>43930.507499884261</v>
+        <v>43930.517007175928</v>
       </c>
       <c r="H19" s="11">
         <v>49.7</v>
@@ -11906,18 +11901,18 @@
         <f t="shared" si="4"/>
         <v>479</v>
       </c>
-      <c r="N19" s="64">
+      <c r="N19" s="63">
         <f t="shared" si="5"/>
         <v>0.10146155475534845</v>
       </c>
-      <c r="Q19" s="66"/>
+      <c r="Q19" s="65"/>
     </row>
     <row r="20" spans="1:24" ht="14.65" customHeight="1">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="19">
         <v>43528</v>
@@ -11934,7 +11929,7 @@
       </c>
       <c r="G20" s="33">
         <f ca="1">G2</f>
-        <v>43930.507499884261</v>
+        <v>43930.517007175928</v>
       </c>
       <c r="H20" s="11">
         <v>25.85</v>
@@ -11958,18 +11953,18 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="N20" s="64">
+      <c r="N20" s="63">
         <f t="shared" si="5"/>
         <v>0.11278195488721804</v>
       </c>
-      <c r="Q20" s="66"/>
+      <c r="Q20" s="65"/>
     </row>
     <row r="21" spans="1:24" ht="14.65" customHeight="1">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="19">
         <v>43370</v>
@@ -11993,15 +11988,15 @@
       <c r="K21" s="11"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
-      <c r="N21" s="64"/>
-      <c r="Q21" s="66"/>
+      <c r="N21" s="63"/>
+      <c r="Q21" s="65"/>
     </row>
     <row r="22" spans="1:24" ht="14.65" customHeight="1">
       <c r="A22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
         <v>184</v>
-      </c>
-      <c r="B22" t="s">
-        <v>185</v>
       </c>
       <c r="C22" s="33">
         <v>43472</v>
@@ -12050,7 +12045,7 @@
     </row>
     <row r="24" spans="1:24" ht="14.65" customHeight="1">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" s="33"/>
       <c r="E24">
@@ -12121,7 +12116,7 @@
         <f>SUM(M12:M20)</f>
         <v>8256.9500000000007</v>
       </c>
-      <c r="N27" s="68">
+      <c r="N27" s="67">
         <f>M27/F27</f>
         <v>0.29059391392638501</v>
       </c>
@@ -12150,10 +12145,10 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="U30" t="s">
+        <v>186</v>
+      </c>
+      <c r="W30" t="s">
         <v>187</v>
-      </c>
-      <c r="W30" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="14.65" customHeight="1">
@@ -12206,7 +12201,7 @@
         <v>3.65</v>
       </c>
       <c r="T31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U31">
         <v>2</v>
@@ -12224,55 +12219,55 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="14.65" customHeight="1">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="70">
+      <c r="C32" s="69">
         <v>43325</v>
       </c>
-      <c r="D32" s="69">
+      <c r="D32" s="68">
         <v>100</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="70">
         <v>12.15</v>
       </c>
-      <c r="F32" s="71">
+      <c r="F32" s="70">
         <f t="shared" ref="F32:F39" si="6">D32*E32</f>
         <v>1215</v>
       </c>
-      <c r="G32" s="72">
+      <c r="G32" s="71">
         <v>43369</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="68">
         <v>12.83</v>
       </c>
-      <c r="I32" s="71">
+      <c r="I32" s="70">
         <f>D32*H32-4</f>
         <v>1279</v>
       </c>
-      <c r="J32" s="71">
+      <c r="J32" s="70">
         <f t="shared" ref="J32:J39" si="7">D32*H32-F32</f>
         <v>68</v>
       </c>
-      <c r="K32" s="73">
+      <c r="K32" s="72">
         <f t="shared" ref="K32:K39" si="8">J32/F32</f>
         <v>5.5967078189300412E-2</v>
       </c>
-      <c r="L32" s="74">
+      <c r="L32" s="73">
         <v>13.25</v>
       </c>
-      <c r="M32" s="74">
+      <c r="M32" s="73">
         <f t="shared" ref="M32:M39" si="9">L32*D32</f>
         <v>1325</v>
       </c>
-      <c r="N32" s="74">
+      <c r="N32" s="73">
         <f t="shared" ref="N32:N39" si="10">M32-F32</f>
         <v>110</v>
       </c>
-      <c r="O32" s="75">
+      <c r="O32" s="74">
         <f t="shared" ref="O32:O39" si="11">N32/F32</f>
         <v>9.0534979423868317E-2</v>
       </c>
@@ -12280,7 +12275,7 @@
         <v>33</v>
       </c>
       <c r="T32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U32">
         <v>2</v>
@@ -12298,55 +12293,55 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="14.65" customHeight="1">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="69">
         <v>43332</v>
       </c>
-      <c r="D33" s="69">
+      <c r="D33" s="68">
         <v>100</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="70">
         <v>25</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33" s="70">
         <f t="shared" si="6"/>
         <v>2500</v>
       </c>
-      <c r="G33" s="72">
+      <c r="G33" s="71">
         <v>43376</v>
       </c>
-      <c r="H33" s="71">
+      <c r="H33" s="70">
         <v>28.9</v>
       </c>
-      <c r="I33" s="71">
+      <c r="I33" s="70">
         <f>H33*D33-8.15</f>
         <v>2881.85</v>
       </c>
-      <c r="J33" s="71">
+      <c r="J33" s="70">
         <f t="shared" si="7"/>
         <v>390</v>
       </c>
-      <c r="K33" s="73">
+      <c r="K33" s="72">
         <f t="shared" si="8"/>
         <v>0.156</v>
       </c>
-      <c r="L33" s="74">
+      <c r="L33" s="73">
         <v>29.4</v>
       </c>
-      <c r="M33" s="74">
+      <c r="M33" s="73">
         <f t="shared" si="9"/>
         <v>2940</v>
       </c>
-      <c r="N33" s="74">
+      <c r="N33" s="73">
         <f t="shared" si="10"/>
         <v>440</v>
       </c>
-      <c r="O33" s="75">
+      <c r="O33" s="74">
         <f t="shared" si="11"/>
         <v>0.17599999999999999</v>
       </c>
@@ -12355,7 +12350,7 @@
         <v>4</v>
       </c>
       <c r="T33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U33">
         <v>2</v>
@@ -12373,55 +12368,55 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="14.65" customHeight="1">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="69">
         <v>43333</v>
       </c>
-      <c r="D34" s="69">
+      <c r="D34" s="68">
         <v>300</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="70">
         <v>9.5</v>
       </c>
-      <c r="F34" s="71">
+      <c r="F34" s="70">
         <f t="shared" si="6"/>
         <v>2850</v>
       </c>
-      <c r="G34" s="72">
+      <c r="G34" s="71">
         <v>43381</v>
       </c>
-      <c r="H34" s="71">
+      <c r="H34" s="70">
         <v>11.09</v>
       </c>
-      <c r="I34" s="71">
+      <c r="I34" s="70">
         <f t="shared" ref="I34:I39" si="12">H34*D34-8.75</f>
         <v>3318.25</v>
       </c>
-      <c r="J34" s="71">
+      <c r="J34" s="70">
         <f t="shared" si="7"/>
         <v>477</v>
       </c>
-      <c r="K34" s="73">
+      <c r="K34" s="72">
         <f t="shared" si="8"/>
         <v>0.16736842105263158</v>
       </c>
-      <c r="L34" s="74">
+      <c r="L34" s="73">
         <v>10.5</v>
       </c>
-      <c r="M34" s="74">
+      <c r="M34" s="73">
         <f t="shared" si="9"/>
         <v>3150</v>
       </c>
-      <c r="N34" s="74">
+      <c r="N34" s="73">
         <f t="shared" si="10"/>
         <v>300</v>
       </c>
-      <c r="O34" s="75">
+      <c r="O34" s="74">
         <f t="shared" si="11"/>
         <v>0.10526315789473684</v>
       </c>
@@ -12435,61 +12430,61 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="14.65" customHeight="1">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="69">
         <v>43356</v>
       </c>
-      <c r="D35" s="69">
+      <c r="D35" s="68">
         <v>400</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="70">
         <v>6.3875000000000002</v>
       </c>
-      <c r="F35" s="71">
+      <c r="F35" s="70">
         <f t="shared" si="6"/>
         <v>2555</v>
       </c>
-      <c r="G35" s="72">
+      <c r="G35" s="71">
         <v>43381</v>
       </c>
-      <c r="H35" s="71">
+      <c r="H35" s="70">
         <v>9.41</v>
       </c>
-      <c r="I35" s="71">
+      <c r="I35" s="70">
         <f t="shared" si="12"/>
         <v>3755.25</v>
       </c>
-      <c r="J35" s="71">
+      <c r="J35" s="70">
         <f t="shared" si="7"/>
         <v>1209</v>
       </c>
-      <c r="K35" s="73">
+      <c r="K35" s="72">
         <f t="shared" si="8"/>
         <v>0.47318982387475539</v>
       </c>
-      <c r="L35" s="74">
+      <c r="L35" s="73">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M35" s="74">
+      <c r="M35" s="73">
         <f t="shared" si="9"/>
         <v>3520.0000000000005</v>
       </c>
-      <c r="N35" s="74">
+      <c r="N35" s="73">
         <f t="shared" si="10"/>
         <v>965.00000000000045</v>
       </c>
-      <c r="O35" s="75">
+      <c r="O35" s="74">
         <f t="shared" si="11"/>
         <v>0.3776908023483368</v>
       </c>
       <c r="R35" s="16"/>
       <c r="T35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U35">
         <f>V34+X34</f>
@@ -12497,60 +12492,60 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="14.65" customHeight="1">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="69">
         <v>43361</v>
       </c>
-      <c r="D36" s="69">
+      <c r="D36" s="68">
         <v>400</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="70">
         <v>12.81</v>
       </c>
-      <c r="F36" s="71">
+      <c r="F36" s="70">
         <f t="shared" si="6"/>
         <v>5124</v>
       </c>
-      <c r="G36" s="72">
+      <c r="G36" s="71">
         <v>43404</v>
       </c>
-      <c r="H36" s="71">
+      <c r="H36" s="70">
         <v>13.35</v>
       </c>
-      <c r="I36" s="71">
+      <c r="I36" s="70">
         <f t="shared" si="12"/>
         <v>5331.25</v>
       </c>
-      <c r="J36" s="71">
+      <c r="J36" s="70">
         <f t="shared" si="7"/>
         <v>216</v>
       </c>
-      <c r="K36" s="73">
+      <c r="K36" s="72">
         <f t="shared" si="8"/>
         <v>4.2154566744730677E-2</v>
       </c>
-      <c r="L36" s="74">
+      <c r="L36" s="73">
         <v>12.9</v>
       </c>
-      <c r="M36" s="74">
+      <c r="M36" s="73">
         <f t="shared" si="9"/>
         <v>5160</v>
       </c>
-      <c r="N36" s="74">
+      <c r="N36" s="73">
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="O36" s="75">
+      <c r="O36" s="74">
         <f t="shared" si="11"/>
         <v>7.0257611241217799E-3</v>
       </c>
       <c r="T36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U36">
         <f>U35/5</f>
@@ -12558,60 +12553,60 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="14.65" customHeight="1">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" s="70">
+      <c r="B37" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="69">
         <v>43381</v>
       </c>
-      <c r="D37" s="69">
+      <c r="D37" s="68">
         <v>200</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="70">
         <v>19.149999999999999</v>
       </c>
-      <c r="F37" s="71">
+      <c r="F37" s="70">
         <f t="shared" si="6"/>
         <v>3829.9999999999995</v>
       </c>
-      <c r="G37" s="72">
+      <c r="G37" s="71">
         <v>43411</v>
       </c>
-      <c r="H37" s="71">
+      <c r="H37" s="70">
         <v>21.85</v>
       </c>
-      <c r="I37" s="71">
+      <c r="I37" s="70">
         <f t="shared" si="12"/>
         <v>4361.25</v>
       </c>
-      <c r="J37" s="71">
+      <c r="J37" s="70">
         <f t="shared" si="7"/>
         <v>540.00000000000045</v>
       </c>
-      <c r="K37" s="73">
+      <c r="K37" s="72">
         <f t="shared" si="8"/>
         <v>0.14099216710182783</v>
       </c>
-      <c r="L37" s="74">
+      <c r="L37" s="73">
         <v>21.5</v>
       </c>
-      <c r="M37" s="74">
+      <c r="M37" s="73">
         <f t="shared" si="9"/>
         <v>4300</v>
       </c>
-      <c r="N37" s="74">
+      <c r="N37" s="73">
         <f t="shared" si="10"/>
         <v>470.00000000000045</v>
       </c>
-      <c r="O37" s="75">
+      <c r="O37" s="74">
         <f t="shared" si="11"/>
         <v>0.12271540469973903</v>
       </c>
       <c r="T37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U37">
         <f>22*U36</f>
@@ -12623,132 +12618,132 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="14.65" customHeight="1">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="69">
         <v>43336</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D38" s="68">
         <v>200</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="70">
         <v>14.75</v>
       </c>
-      <c r="F38" s="71">
+      <c r="F38" s="70">
         <f t="shared" si="6"/>
         <v>2950</v>
       </c>
-      <c r="G38" s="72">
+      <c r="G38" s="71">
         <v>43423</v>
       </c>
-      <c r="H38" s="71">
+      <c r="H38" s="70">
         <v>24.98</v>
       </c>
-      <c r="I38" s="71">
+      <c r="I38" s="70">
         <f t="shared" si="12"/>
         <v>4987.25</v>
       </c>
-      <c r="J38" s="71">
+      <c r="J38" s="70">
         <f t="shared" si="7"/>
         <v>2046</v>
       </c>
-      <c r="K38" s="73">
+      <c r="K38" s="72">
         <f t="shared" si="8"/>
         <v>0.69355932203389825</v>
       </c>
-      <c r="L38" s="74">
+      <c r="L38" s="73">
         <v>22.5</v>
       </c>
-      <c r="M38" s="74">
+      <c r="M38" s="73">
         <f t="shared" si="9"/>
         <v>4500</v>
       </c>
-      <c r="N38" s="74">
+      <c r="N38" s="73">
         <f t="shared" si="10"/>
         <v>1550</v>
       </c>
-      <c r="O38" s="75">
+      <c r="O38" s="74">
         <f t="shared" si="11"/>
         <v>0.52542372881355937</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="14.65" customHeight="1">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="70">
+      <c r="C39" s="69">
         <v>43403</v>
       </c>
-      <c r="D39" s="69">
+      <c r="D39" s="68">
         <v>300</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="68">
         <v>11.78</v>
       </c>
-      <c r="F39" s="71">
+      <c r="F39" s="70">
         <f t="shared" si="6"/>
         <v>3534</v>
       </c>
-      <c r="G39" s="72">
+      <c r="G39" s="71">
         <v>43509</v>
       </c>
-      <c r="H39" s="69">
+      <c r="H39" s="68">
         <v>13.01</v>
       </c>
-      <c r="I39" s="71">
+      <c r="I39" s="70">
         <f t="shared" si="12"/>
         <v>3894.25</v>
       </c>
-      <c r="J39" s="71">
+      <c r="J39" s="70">
         <f t="shared" si="7"/>
         <v>369</v>
       </c>
-      <c r="K39" s="73">
+      <c r="K39" s="72">
         <f t="shared" si="8"/>
         <v>0.10441426146010187</v>
       </c>
-      <c r="L39" s="74">
+      <c r="L39" s="73">
         <v>13</v>
       </c>
-      <c r="M39" s="74">
+      <c r="M39" s="73">
         <f t="shared" si="9"/>
         <v>3900</v>
       </c>
-      <c r="N39" s="74">
+      <c r="N39" s="73">
         <f t="shared" si="10"/>
         <v>366</v>
       </c>
-      <c r="O39" s="75">
+      <c r="O39" s="74">
         <f t="shared" si="11"/>
         <v>0.1035653650254669</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="14.65" customHeight="1">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="75"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="74"/>
     </row>
     <row r="41" spans="1:24" ht="14.65" customHeight="1">
-      <c r="I41" s="71"/>
+      <c r="I41" s="70"/>
     </row>
     <row r="42" spans="1:24" ht="14.65" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -12792,57 +12787,57 @@
       <c r="P42" s="18"/>
     </row>
     <row r="43" spans="1:24" ht="14.65" customHeight="1">
-      <c r="A43" s="76"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="79"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="78"/>
     </row>
     <row r="44" spans="1:24" ht="14.65" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="79"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="78"/>
     </row>
     <row r="45" spans="1:24" ht="14.65" customHeight="1">
-      <c r="A45" s="76"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="79"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="78"/>
     </row>
     <row r="46" spans="1:24" ht="14.65" customHeight="1">
       <c r="A46" s="7" t="s">
@@ -12852,595 +12847,595 @@
         <v>5</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K46" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="78"/>
+    </row>
+    <row r="47" spans="1:24" ht="14.65" customHeight="1">
+      <c r="A47" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="79"/>
-    </row>
-    <row r="47" spans="1:24" ht="14.65" customHeight="1">
-      <c r="A47" s="80" t="s">
+      <c r="B47" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="C47" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="D47" s="80">
+        <v>40128</v>
+      </c>
+      <c r="E47" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="D47" s="81">
-        <v>40128</v>
-      </c>
-      <c r="E47" s="82" t="s">
+      <c r="F47" s="82">
+        <v>149.72</v>
+      </c>
+      <c r="G47" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="H47" s="84">
+        <v>0.8</v>
+      </c>
+      <c r="I47" s="85">
+        <v>165000</v>
+      </c>
+      <c r="J47" s="82">
+        <v>170.2</v>
+      </c>
+      <c r="K47" s="86">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L47" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="F47" s="83">
-        <v>149.72</v>
-      </c>
-      <c r="G47" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="H47" s="85">
-        <v>0.8</v>
-      </c>
-      <c r="I47" s="86">
-        <v>165000</v>
-      </c>
-      <c r="J47" s="83">
-        <v>170.2</v>
-      </c>
-      <c r="K47" s="87">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="L47" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="M47" s="77" t="str">
+      <c r="M47" s="76" t="str">
         <f t="shared" ref="M47:M57" si="13">CONCATENATE("https://www.fundsexplorer.com.br/funds/",A47)</f>
         <v>https://www.fundsexplorer.com.br/funds/HGJH11</v>
       </c>
-      <c r="N47" s="78"/>
-      <c r="O47" s="79"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="78"/>
     </row>
     <row r="48" spans="1:24" ht="14.65" customHeight="1">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="80">
+        <v>39126</v>
+      </c>
+      <c r="E48" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F48" s="82">
+        <v>140</v>
+      </c>
+      <c r="G48" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="81">
+        <v>1.3107</v>
+      </c>
+      <c r="I48" s="81">
+        <v>714516</v>
+      </c>
+      <c r="J48" s="82">
+        <v>149</v>
+      </c>
+      <c r="K48" s="86">
+        <v>0.25</v>
+      </c>
+      <c r="L48" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="D48" s="81">
-        <v>39126</v>
-      </c>
-      <c r="E48" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="F48" s="83">
-        <v>140</v>
-      </c>
-      <c r="G48" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="H48" s="82">
-        <v>1.3107</v>
-      </c>
-      <c r="I48" s="82">
-        <v>714516</v>
-      </c>
-      <c r="J48" s="83">
-        <v>149</v>
-      </c>
-      <c r="K48" s="87">
-        <v>0.25</v>
-      </c>
-      <c r="L48" s="87" t="s">
-        <v>210</v>
-      </c>
-      <c r="M48" s="77" t="str">
+      <c r="M48" s="76" t="str">
         <f t="shared" si="13"/>
         <v>https://www.fundsexplorer.com.br/funds/HTMX11</v>
       </c>
-      <c r="N48" s="78"/>
-      <c r="O48" s="79"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="78"/>
     </row>
     <row r="49" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="C49" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="D49" s="80">
+        <v>39307</v>
+      </c>
+      <c r="E49" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" s="82">
+        <v>77.11</v>
+      </c>
+      <c r="G49" s="83">
+        <v>0.17</v>
+      </c>
+      <c r="H49" s="81">
+        <v>0.52</v>
+      </c>
+      <c r="I49" s="85">
+        <v>1851786</v>
+      </c>
+      <c r="J49" s="82">
+        <v>89.7</v>
+      </c>
+      <c r="K49" s="86">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
         <v>213</v>
       </c>
-      <c r="D49" s="81">
-        <v>39307</v>
-      </c>
-      <c r="E49" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="F49" s="83">
-        <v>77.11</v>
-      </c>
-      <c r="G49" s="84">
-        <v>0.17</v>
-      </c>
-      <c r="H49" s="82">
-        <v>0.52</v>
-      </c>
-      <c r="I49" s="86">
-        <v>1851786</v>
-      </c>
-      <c r="J49" s="83">
-        <v>89.7</v>
-      </c>
-      <c r="K49" s="87">
-        <v>0</v>
-      </c>
-      <c r="L49" t="s">
-        <v>214</v>
-      </c>
-      <c r="M49" s="77" t="str">
+      <c r="M49" s="76" t="str">
         <f t="shared" si="13"/>
         <v>https://www.fundsexplorer.com.br/funds/RBRD11</v>
       </c>
-      <c r="N49" s="78"/>
-      <c r="O49" s="79"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="78"/>
     </row>
     <row r="50" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="C50" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="D50" s="81">
+      <c r="D50" s="80">
         <v>39548</v>
       </c>
-      <c r="E50" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="83">
+      <c r="E50" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" s="82">
         <v>100.73</v>
       </c>
-      <c r="G50" s="84">
+      <c r="G50" s="83">
         <v>0.3</v>
       </c>
-      <c r="H50" s="82">
+      <c r="H50" s="81">
         <v>0.62</v>
       </c>
-      <c r="I50" s="86">
+      <c r="I50" s="85">
         <v>275000</v>
       </c>
-      <c r="J50" s="83">
+      <c r="J50" s="82">
         <v>104.2</v>
       </c>
-      <c r="K50" s="87"/>
-      <c r="M50" s="77" t="str">
+      <c r="K50" s="86"/>
+      <c r="M50" s="76" t="str">
         <f t="shared" si="13"/>
         <v>https://www.fundsexplorer.com.br/funds/FEXC11</v>
       </c>
-      <c r="N50" s="78"/>
-      <c r="O50" s="79"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="78"/>
     </row>
     <row r="51" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="C51" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="D51" s="80">
+        <v>40716</v>
+      </c>
+      <c r="E51" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="82">
+        <v>1178.4000000000001</v>
+      </c>
+      <c r="G51" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="H51" s="81">
+        <v>8</v>
+      </c>
+      <c r="I51" s="85">
+        <v>101664</v>
+      </c>
+      <c r="J51" s="82">
+        <v>1110.52</v>
+      </c>
+      <c r="K51" s="86">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="81">
-        <v>40716</v>
-      </c>
-      <c r="E51" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="83">
-        <v>1178.4000000000001</v>
-      </c>
-      <c r="G51" s="84">
-        <v>0.3</v>
-      </c>
-      <c r="H51" s="82">
-        <v>8</v>
-      </c>
-      <c r="I51" s="86">
-        <v>101664</v>
-      </c>
-      <c r="J51" s="83">
-        <v>1110.52</v>
-      </c>
-      <c r="K51" s="87">
-        <v>0</v>
-      </c>
-      <c r="L51" t="s">
-        <v>221</v>
-      </c>
-      <c r="M51" s="77" t="str">
+      <c r="M51" s="76" t="str">
         <f t="shared" si="13"/>
         <v>https://www.fundsexplorer.com.br/funds/MBRF11</v>
       </c>
-      <c r="N51" s="78"/>
-      <c r="O51" s="79"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="78"/>
     </row>
     <row r="52" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A52" s="80" t="s">
+      <c r="A52" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="B52" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="D52" s="81">
+      <c r="C52" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="D52" s="80">
         <v>40191</v>
       </c>
-      <c r="E52" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="F52" s="83">
+      <c r="E52" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="82">
         <v>104.6</v>
       </c>
-      <c r="G52" s="84">
+      <c r="G52" s="83">
         <v>0.8</v>
       </c>
-      <c r="H52" s="82">
+      <c r="H52" s="81">
         <v>0.97</v>
       </c>
-      <c r="I52" s="86">
+      <c r="I52" s="85">
         <v>30000</v>
       </c>
-      <c r="J52" s="83">
+      <c r="J52" s="82">
         <v>119.25</v>
       </c>
-      <c r="K52" s="87"/>
-      <c r="M52" s="77" t="str">
+      <c r="K52" s="86"/>
+      <c r="M52" s="76" t="str">
         <f t="shared" si="13"/>
         <v>https://www.fundsexplorer.com.br/funds/HGCR11</v>
       </c>
-      <c r="N52" s="78"/>
-      <c r="O52" s="79"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="78"/>
     </row>
     <row r="53" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A53" s="80" t="s">
+      <c r="A53" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="C53" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="80">
+        <v>40753</v>
+      </c>
+      <c r="E53" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="82">
+        <v>388.22</v>
+      </c>
+      <c r="G53" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="C53" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="D53" s="81">
-        <v>40753</v>
-      </c>
-      <c r="E53" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" s="83">
-        <v>388.22</v>
-      </c>
-      <c r="G53" s="88" t="s">
+      <c r="H53" s="81">
+        <v>2.68</v>
+      </c>
+      <c r="I53" s="85">
+        <v>664516</v>
+      </c>
+      <c r="J53" s="82">
+        <v>435</v>
+      </c>
+      <c r="K53" s="86"/>
+      <c r="L53" t="s">
         <v>226</v>
       </c>
-      <c r="H53" s="82">
-        <v>2.68</v>
-      </c>
-      <c r="I53" s="86">
-        <v>664516</v>
-      </c>
-      <c r="J53" s="83">
-        <v>435</v>
-      </c>
-      <c r="K53" s="87"/>
-      <c r="L53" t="s">
-        <v>227</v>
-      </c>
-      <c r="M53" s="77" t="str">
+      <c r="M53" s="76" t="str">
         <f t="shared" si="13"/>
         <v>https://www.fundsexplorer.com.br/funds/FIIB11</v>
       </c>
-      <c r="N53" s="78"/>
-      <c r="O53" s="79"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="78"/>
     </row>
     <row r="54" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A54" s="80" t="s">
+      <c r="A54" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="D54" s="80">
+        <v>43040</v>
+      </c>
+      <c r="E54" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="82">
+        <v>101.8</v>
+      </c>
+      <c r="G54" s="83">
+        <v>1.35</v>
+      </c>
+      <c r="H54" s="81">
+        <v>0.6</v>
+      </c>
+      <c r="I54" s="85">
+        <v>3215033</v>
+      </c>
+      <c r="J54" s="82">
+        <v>107.98</v>
+      </c>
+      <c r="K54" s="86">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L54" t="s">
         <v>229</v>
       </c>
-      <c r="D54" s="81">
-        <v>43040</v>
-      </c>
-      <c r="E54" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="F54" s="83">
-        <v>101.8</v>
-      </c>
-      <c r="G54" s="84">
-        <v>1.35</v>
-      </c>
-      <c r="H54" s="82">
-        <v>0.6</v>
-      </c>
-      <c r="I54" s="86">
-        <v>3215033</v>
-      </c>
-      <c r="J54" s="83">
-        <v>107.98</v>
-      </c>
-      <c r="K54" s="87">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L54" t="s">
-        <v>230</v>
-      </c>
-      <c r="M54" s="77" t="str">
+      <c r="M54" s="76" t="str">
         <f t="shared" si="13"/>
         <v>https://www.fundsexplorer.com.br/funds/VISC11</v>
       </c>
-      <c r="N54" s="78"/>
-      <c r="O54" s="79"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="78"/>
     </row>
     <row r="55" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="C55" s="65" t="s">
+      <c r="B55" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="D55" s="80">
+        <v>43252</v>
+      </c>
+      <c r="E55" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" s="82">
+        <v>96.08</v>
+      </c>
+      <c r="G55" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="H55" s="81">
+        <v>0.65</v>
+      </c>
+      <c r="I55" s="85">
+        <v>3661150</v>
+      </c>
+      <c r="J55" s="82">
+        <v>102</v>
+      </c>
+      <c r="K55" s="86">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="81">
-        <v>43252</v>
-      </c>
-      <c r="E55" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="F55" s="83">
-        <v>96.08</v>
-      </c>
-      <c r="G55" s="84">
-        <v>0.95</v>
-      </c>
-      <c r="H55" s="82">
-        <v>0.65</v>
-      </c>
-      <c r="I55" s="86">
-        <v>3661150</v>
-      </c>
-      <c r="J55" s="83">
-        <v>102</v>
-      </c>
-      <c r="K55" s="87">
-        <v>0</v>
-      </c>
-      <c r="L55" t="s">
-        <v>232</v>
-      </c>
-      <c r="M55" s="77" t="str">
+      <c r="M55" s="76" t="str">
         <f t="shared" si="13"/>
         <v>https://www.fundsexplorer.com.br/funds/XPLG11</v>
       </c>
-      <c r="N55" s="78"/>
-      <c r="O55" s="79"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="78"/>
     </row>
     <row r="56" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B56" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="B56" s="89" t="s">
+      <c r="C56" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="D56" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" s="82">
+        <v>102.47</v>
+      </c>
+      <c r="G56" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="H56" s="81">
+        <v>0.88</v>
+      </c>
+      <c r="I56" s="85">
+        <v>3750000</v>
+      </c>
+      <c r="J56" s="82">
+        <v>107</v>
+      </c>
+      <c r="K56" s="86">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L56" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="D56" s="90" t="s">
-        <v>226</v>
-      </c>
-      <c r="E56" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" s="83">
-        <v>102.47</v>
-      </c>
-      <c r="G56" s="84">
-        <v>0.95</v>
-      </c>
-      <c r="H56" s="82">
-        <v>0.88</v>
-      </c>
-      <c r="I56" s="86">
-        <v>3750000</v>
-      </c>
-      <c r="J56" s="83">
-        <v>107</v>
-      </c>
-      <c r="K56" s="87">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="L56" t="s">
-        <v>235</v>
-      </c>
-      <c r="M56" s="77" t="str">
+      <c r="M56" s="76" t="str">
         <f t="shared" si="13"/>
         <v>https://www.fundsexplorer.com.br/funds/XPML11</v>
       </c>
-      <c r="N56" s="78"/>
-      <c r="O56" s="79"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="78"/>
     </row>
     <row r="57" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A57" s="80" t="s">
+      <c r="A57" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="B57" s="65" t="s">
+      <c r="C57" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" s="80">
+        <v>40444</v>
+      </c>
+      <c r="E57" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="82">
+        <v>93.82</v>
+      </c>
+      <c r="G57" s="83">
+        <v>0.17</v>
+      </c>
+      <c r="H57" s="81">
+        <v>0.39</v>
+      </c>
+      <c r="I57" s="85">
+        <v>2150000</v>
+      </c>
+      <c r="J57" s="82">
+        <v>128</v>
+      </c>
+      <c r="K57" s="86">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="L57" t="s">
         <v>237</v>
       </c>
-      <c r="C57" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" s="81">
-        <v>40444</v>
-      </c>
-      <c r="E57" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="F57" s="83">
-        <v>93.82</v>
-      </c>
-      <c r="G57" s="84">
-        <v>0.17</v>
-      </c>
-      <c r="H57" s="82">
-        <v>0.39</v>
-      </c>
-      <c r="I57" s="86">
-        <v>2150000</v>
-      </c>
-      <c r="J57" s="83">
-        <v>128</v>
-      </c>
-      <c r="K57" s="87">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="L57" t="s">
-        <v>238</v>
-      </c>
-      <c r="M57" s="77" t="str">
+      <c r="M57" s="76" t="str">
         <f t="shared" si="13"/>
         <v>https://www.fundsexplorer.com.br/funds/FVBI11</v>
       </c>
-      <c r="N57" s="78"/>
-      <c r="O57" s="79"/>
+      <c r="N57" s="77"/>
+      <c r="O57" s="78"/>
     </row>
     <row r="58" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A58" s="76"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
-      <c r="O58" s="79"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="78"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="78"/>
     </row>
     <row r="59" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A59" s="76"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="79"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="78"/>
     </row>
     <row r="60" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A60" s="76"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="77"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="79"/>
+      <c r="A60" s="75"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="77"/>
+      <c r="N60" s="77"/>
+      <c r="O60" s="78"/>
     </row>
     <row r="61" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A61" s="76"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="77"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="79"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="77"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="78"/>
     </row>
     <row r="62" spans="1:16" ht="14.65" customHeight="1">
-      <c r="A62" s="92"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="93"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="93"/>
-      <c r="M62" s="94"/>
-      <c r="N62" s="94"/>
-      <c r="O62" s="95"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="94"/>
+      <c r="L62" s="92"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="94"/>
     </row>
     <row r="63" spans="1:16" ht="14.65" customHeight="1">
       <c r="L63" s="3" t="s">
@@ -13467,22 +13462,22 @@
         <v>7</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H64" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I64" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>6</v>
@@ -13502,7 +13497,7 @@
     </row>
     <row r="65" spans="1:19" ht="14.65" customHeight="1">
       <c r="A65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D65" s="16">
         <v>322510</v>
@@ -13510,10 +13505,10 @@
     </row>
     <row r="66" spans="1:19" ht="14.65" customHeight="1">
       <c r="A66" t="s">
+        <v>243</v>
+      </c>
+      <c r="B66" t="s">
         <v>244</v>
-      </c>
-      <c r="B66" t="s">
-        <v>245</v>
       </c>
       <c r="C66" s="19">
         <v>43349</v>
@@ -13531,10 +13526,10 @@
     </row>
     <row r="67" spans="1:19" ht="14.65" customHeight="1">
       <c r="A67" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" t="s">
         <v>246</v>
-      </c>
-      <c r="B67" t="s">
-        <v>247</v>
       </c>
       <c r="C67" s="19">
         <v>43349</v>
@@ -13565,7 +13560,7 @@
       <c r="K67" s="19">
         <v>44197</v>
       </c>
-      <c r="L67" s="96">
+      <c r="L67" s="95">
         <v>43928</v>
       </c>
       <c r="M67" s="16">
@@ -13588,10 +13583,10 @@
     </row>
     <row r="68" spans="1:19" ht="14.65" customHeight="1">
       <c r="A68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C68" s="19">
         <v>43353</v>
@@ -13643,17 +13638,17 @@
         <f t="shared" si="15"/>
         <v>0.49420958523200859</v>
       </c>
-      <c r="Q68" s="97" t="s">
-        <v>249</v>
+      <c r="Q68" s="96" t="s">
+        <v>248</v>
       </c>
       <c r="S68" s="17"/>
     </row>
     <row r="69" spans="1:19" ht="14.65" customHeight="1">
       <c r="A69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C69" s="19">
         <v>43353</v>
@@ -13709,10 +13704,10 @@
     </row>
     <row r="70" spans="1:19" ht="14.65" customHeight="1">
       <c r="A70" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" t="s">
         <v>251</v>
-      </c>
-      <c r="B70" t="s">
-        <v>252</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="16">
@@ -13752,10 +13747,10 @@
     </row>
     <row r="71" spans="1:19" ht="14.65" customHeight="1">
       <c r="A71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="16">
@@ -13794,10 +13789,10 @@
     </row>
     <row r="72" spans="1:19" ht="14.65" customHeight="1">
       <c r="A72" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="16">
@@ -13835,10 +13830,10 @@
     </row>
     <row r="73" spans="1:19" ht="14.65" customHeight="1">
       <c r="A73" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="16">
@@ -13877,10 +13872,10 @@
     </row>
     <row r="74" spans="1:19" ht="14.65" customHeight="1">
       <c r="A74" t="s">
+        <v>255</v>
+      </c>
+      <c r="B74" t="s">
         <v>256</v>
-      </c>
-      <c r="B74" t="s">
-        <v>257</v>
       </c>
       <c r="C74" s="19">
         <v>43508</v>
@@ -13921,10 +13916,10 @@
     </row>
     <row r="75" spans="1:19" ht="14.65" customHeight="1">
       <c r="A75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="16">
@@ -13957,10 +13952,10 @@
     </row>
     <row r="76" spans="1:19" ht="14.65" customHeight="1">
       <c r="A76" t="s">
+        <v>258</v>
+      </c>
+      <c r="B76" t="s">
         <v>259</v>
-      </c>
-      <c r="B76" t="s">
-        <v>260</v>
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="16">
@@ -13971,10 +13966,10 @@
     </row>
     <row r="77" spans="1:19" ht="14.65" customHeight="1">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="16">
@@ -13985,10 +13980,10 @@
     </row>
     <row r="78" spans="1:19" ht="14.65" customHeight="1">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C78" s="16">
         <v>1000</v>
@@ -14001,10 +13996,10 @@
     </row>
     <row r="79" spans="1:19" ht="14.65" customHeight="1">
       <c r="A79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B79" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C79" s="16">
         <v>2000</v>
@@ -14017,10 +14012,10 @@
     </row>
     <row r="80" spans="1:19" ht="14.65" customHeight="1">
       <c r="A80" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="B80" s="98" t="s">
-        <v>255</v>
+        <v>263</v>
+      </c>
+      <c r="B80" s="97" t="s">
+        <v>254</v>
       </c>
       <c r="C80" s="27">
         <f>D65-SUM(J66:J75)</f>
@@ -14062,10 +14057,10 @@
     </row>
     <row r="84" spans="1:7" ht="12.75" customHeight="1">
       <c r="A84" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" t="s">
         <v>265</v>
-      </c>
-      <c r="C84" t="s">
-        <v>266</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -14074,7 +14069,7 @@
         <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
@@ -14082,10 +14077,10 @@
     </row>
     <row r="85" spans="1:7" ht="14.65" customHeight="1">
       <c r="A85" t="s">
+        <v>267</v>
+      </c>
+      <c r="B85" t="s">
         <v>268</v>
-      </c>
-      <c r="B85" t="s">
-        <v>269</v>
       </c>
       <c r="C85">
         <v>117920</v>
@@ -14096,20 +14091,20 @@
       <c r="E85" s="19">
         <v>37822</v>
       </c>
-      <c r="F85" s="99">
+      <c r="F85" s="98">
         <v>1</v>
       </c>
-      <c r="G85" s="100">
+      <c r="G85" s="99">
         <f>D85*(1+F85)</f>
         <v>128000</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="14.65" customHeight="1">
       <c r="A86" t="s">
+        <v>269</v>
+      </c>
+      <c r="B86" t="s">
         <v>270</v>
-      </c>
-      <c r="B86" t="s">
-        <v>271</v>
       </c>
       <c r="C86">
         <v>275822</v>
@@ -14120,20 +14115,20 @@
       <c r="E86" s="19">
         <v>40744</v>
       </c>
-      <c r="F86" s="99">
+      <c r="F86" s="98">
         <v>0.8</v>
       </c>
-      <c r="G86" s="100">
+      <c r="G86" s="99">
         <f>D86*(1+F86)</f>
         <v>396000</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="14.65" customHeight="1">
       <c r="A87" t="s">
+        <v>271</v>
+      </c>
+      <c r="B87" t="s">
         <v>272</v>
-      </c>
-      <c r="B87" t="s">
-        <v>273</v>
       </c>
       <c r="C87">
         <v>2882</v>
@@ -14144,20 +14139,20 @@
       <c r="E87" s="19">
         <v>42114</v>
       </c>
-      <c r="F87" s="99">
+      <c r="F87" s="98">
         <v>0.3</v>
       </c>
-      <c r="G87" s="100">
+      <c r="G87" s="99">
         <f>D87*(1+F87)</f>
         <v>29900</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="14.65" customHeight="1">
       <c r="A88" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D88">
         <v>38000</v>
@@ -14165,10 +14160,10 @@
       <c r="E88" s="19">
         <v>43605</v>
       </c>
-      <c r="F88" s="99">
+      <c r="F88" s="98">
         <v>0.1</v>
       </c>
-      <c r="G88" s="100">
+      <c r="G88" s="99">
         <f>D88*(1+F88)</f>
         <v>41800</v>
       </c>
@@ -14178,18 +14173,18 @@
         <f>SUM(D85:D88)</f>
         <v>345000</v>
       </c>
-      <c r="F89" s="99">
+      <c r="F89" s="98">
         <f>(G89-D89)/D89</f>
         <v>0.72666666666666668</v>
       </c>
-      <c r="G89" s="101">
+      <c r="G89" s="100">
         <f>SUM(G85:G88)</f>
         <v>595700</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="12.75" customHeight="1">
       <c r="A95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B95">
         <v>142</v>
